--- a/Hausaufgabe4/Aufgaben.xlsx
+++ b/Hausaufgabe4/Aufgaben.xlsx
@@ -14,6 +14,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Blatt1!$A$1:$AH$91</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="29">
   <si>
     <t>P1</t>
   </si>
@@ -441,7 +442,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="112">
+  <cellStyleXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -554,8 +555,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -584,76 +587,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -664,94 +616,166 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="112">
+  <cellStyles count="114">
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="7" builtinId="9" hidden="1"/>
@@ -807,6 +831,7 @@
     <cellStyle name="Besuchter Link" xfId="107" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="113" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
@@ -862,6 +887,7 @@
     <cellStyle name="Link" xfId="106" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="112" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1269,49 +1295,49 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="4" spans="2:28">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="2:28">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="57"/>
     </row>
     <row r="7" spans="2:28">
-      <c r="B7" s="33">
-        <v>0</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="G7" s="33">
+      <c r="B7" s="57">
+        <v>0</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="G7" s="57">
         <v>5</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="L7" s="33">
+      <c r="H7" s="57"/>
+      <c r="L7" s="57">
         <v>10</v>
       </c>
-      <c r="M7" s="33"/>
-      <c r="Q7" s="33">
+      <c r="M7" s="57"/>
+      <c r="Q7" s="57">
         <v>15</v>
       </c>
-      <c r="R7" s="33"/>
-      <c r="V7" s="33">
+      <c r="R7" s="57"/>
+      <c r="V7" s="57">
         <v>20</v>
       </c>
-      <c r="W7" s="33"/>
-      <c r="AA7" s="33">
+      <c r="W7" s="57"/>
+      <c r="AA7" s="57">
         <v>25</v>
       </c>
-      <c r="AB7" s="33"/>
+      <c r="AB7" s="57"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="11"/>
@@ -1343,136 +1369,136 @@
     </row>
     <row r="9" spans="2:28" ht="15" customHeight="1">
       <c r="B9" s="5"/>
-      <c r="C9" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="36" t="s">
+      <c r="C9" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="36" t="s">
+      <c r="J9" s="53"/>
+      <c r="K9" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="36" t="s">
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="S9" s="37"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="36" t="s">
+      <c r="S9" s="52"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="36" t="s">
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="38"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="53"/>
     </row>
     <row r="10" spans="2:28" ht="15" customHeight="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="41"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="56"/>
     </row>
     <row r="12" spans="2:28">
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
     </row>
     <row r="13" spans="2:28">
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
     </row>
     <row r="17" spans="2:28">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="33"/>
+      <c r="C17" s="32"/>
     </row>
     <row r="19" spans="2:28">
-      <c r="B19" s="33">
-        <v>0</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="G19" s="33">
+      <c r="B19" s="57">
+        <v>0</v>
+      </c>
+      <c r="C19" s="57"/>
+      <c r="G19" s="57">
         <v>5</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="L19" s="33">
+      <c r="H19" s="57"/>
+      <c r="L19" s="57">
         <v>10</v>
       </c>
-      <c r="M19" s="33"/>
-      <c r="Q19" s="33">
+      <c r="M19" s="57"/>
+      <c r="Q19" s="57">
         <v>15</v>
       </c>
-      <c r="R19" s="33"/>
-      <c r="V19" s="33">
+      <c r="R19" s="57"/>
+      <c r="V19" s="57">
         <v>20</v>
       </c>
-      <c r="W19" s="33"/>
-      <c r="AA19" s="33">
+      <c r="W19" s="57"/>
+      <c r="AA19" s="57">
         <v>25</v>
       </c>
-      <c r="AB19" s="33"/>
+      <c r="AB19" s="57"/>
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="11"/>
@@ -1504,71 +1530,71 @@
     </row>
     <row r="21" spans="2:28" ht="15" customHeight="1">
       <c r="B21" s="5"/>
-      <c r="C21" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="36" t="s">
+      <c r="C21" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="J21" s="38"/>
-      <c r="K21" s="36" t="s">
+      <c r="J21" s="53"/>
+      <c r="K21" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="37"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="36" t="s">
+      <c r="L21" s="52"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="36" t="s">
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="S21" s="37"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="36" t="s">
+      <c r="S21" s="52"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="38"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="53"/>
     </row>
     <row r="22" spans="2:28" ht="15" customHeight="1">
       <c r="B22" s="5"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="41"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="56"/>
     </row>
     <row r="24" spans="2:28">
       <c r="C24" s="6" t="s">
@@ -1586,54 +1612,54 @@
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="2:28">
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
     </row>
     <row r="28" spans="2:28">
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="33"/>
+      <c r="C28" s="32"/>
     </row>
     <row r="30" spans="2:28">
-      <c r="B30" s="33">
-        <v>0</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="G30" s="33">
+      <c r="B30" s="57">
+        <v>0</v>
+      </c>
+      <c r="C30" s="57"/>
+      <c r="G30" s="57">
         <v>5</v>
       </c>
-      <c r="H30" s="33"/>
-      <c r="L30" s="33">
+      <c r="H30" s="57"/>
+      <c r="L30" s="57">
         <v>10</v>
       </c>
-      <c r="M30" s="33"/>
-      <c r="Q30" s="33">
+      <c r="M30" s="57"/>
+      <c r="Q30" s="57">
         <v>15</v>
       </c>
-      <c r="R30" s="33"/>
-      <c r="V30" s="33">
+      <c r="R30" s="57"/>
+      <c r="V30" s="57">
         <v>20</v>
       </c>
-      <c r="W30" s="33"/>
-      <c r="AA30" s="33">
+      <c r="W30" s="57"/>
+      <c r="AA30" s="57">
         <v>25</v>
       </c>
-      <c r="AB30" s="33"/>
+      <c r="AB30" s="57"/>
     </row>
     <row r="31" spans="2:28">
       <c r="B31" s="11"/>
@@ -1665,73 +1691,73 @@
     </row>
     <row r="32" spans="2:28" ht="15" customHeight="1">
       <c r="B32" s="5"/>
-      <c r="C32" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="27" t="s">
+      <c r="C32" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="27" t="s">
+      <c r="E32" s="60"/>
+      <c r="F32" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="27" t="s">
+      <c r="G32" s="59"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="O32" s="28"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="27" t="s">
+      <c r="O32" s="59"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="27" t="s">
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="29"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="60"/>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1">
       <c r="B33" s="5"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="32"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="63"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="63"/>
     </row>
     <row r="35" spans="1:27">
       <c r="C35" s="6" t="s">
@@ -1749,54 +1775,54 @@
       <c r="M35" s="6"/>
     </row>
     <row r="36" spans="1:27">
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
     </row>
     <row r="47" spans="1:27">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="33"/>
+      <c r="B47" s="57"/>
     </row>
     <row r="49" spans="1:27">
-      <c r="A49" s="33">
-        <v>0</v>
-      </c>
-      <c r="B49" s="33"/>
-      <c r="F49" s="33">
+      <c r="A49" s="57">
+        <v>0</v>
+      </c>
+      <c r="B49" s="57"/>
+      <c r="F49" s="57">
         <v>5</v>
       </c>
-      <c r="G49" s="33"/>
-      <c r="K49" s="33">
+      <c r="G49" s="57"/>
+      <c r="K49" s="57">
         <v>10</v>
       </c>
-      <c r="L49" s="33"/>
-      <c r="P49" s="33">
+      <c r="L49" s="57"/>
+      <c r="P49" s="57">
         <v>15</v>
       </c>
-      <c r="Q49" s="33"/>
-      <c r="U49" s="33">
+      <c r="Q49" s="57"/>
+      <c r="U49" s="57">
         <v>20</v>
       </c>
-      <c r="V49" s="33"/>
-      <c r="Z49" s="33">
+      <c r="V49" s="57"/>
+      <c r="Z49" s="57">
         <v>25</v>
       </c>
-      <c r="AA49" s="33"/>
+      <c r="AA49" s="57"/>
     </row>
     <row r="50" spans="1:27">
       <c r="A50" s="11"/>
@@ -1828,71 +1854,71 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="5"/>
-      <c r="B51" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="27" t="s">
+      <c r="B51" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="I51" s="29"/>
-      <c r="J51" s="27" t="s">
+      <c r="I51" s="60"/>
+      <c r="J51" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="K51" s="28"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="27" t="s">
+      <c r="K51" s="59"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="27" t="s">
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="59"/>
+      <c r="S51" s="60"/>
+      <c r="T51" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="27" t="s">
+      <c r="U51" s="59"/>
+      <c r="V51" s="59"/>
+      <c r="W51" s="60"/>
+      <c r="X51" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="29"/>
+      <c r="Y51" s="59"/>
+      <c r="Z51" s="60"/>
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="5"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="31"/>
-      <c r="V52" s="31"/>
-      <c r="W52" s="32"/>
-      <c r="X52" s="30"/>
-      <c r="Y52" s="31"/>
-      <c r="Z52" s="32"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="63"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="62"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="62"/>
+      <c r="S52" s="63"/>
+      <c r="T52" s="61"/>
+      <c r="U52" s="62"/>
+      <c r="V52" s="62"/>
+      <c r="W52" s="63"/>
+      <c r="X52" s="61"/>
+      <c r="Y52" s="62"/>
+      <c r="Z52" s="63"/>
     </row>
     <row r="54" spans="1:27">
       <c r="B54" s="6" t="s">
@@ -1930,51 +1956,7 @@
       <c r="O56" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="C12:M12"/>
-    <mergeCell ref="K9:Q10"/>
-    <mergeCell ref="R9:T10"/>
-    <mergeCell ref="U9:X10"/>
-    <mergeCell ref="Y9:AA10"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="C13:P13"/>
-    <mergeCell ref="C13:P13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="C21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="R21:T22"/>
-    <mergeCell ref="K21:M22"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="N21:Q22"/>
-    <mergeCell ref="U21:AA22"/>
-    <mergeCell ref="C25:P25"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="U32:AA33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="Q32:T33"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="C36:P36"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:E33"/>
-    <mergeCell ref="F32:H33"/>
+  <mergeCells count="55">
     <mergeCell ref="T51:W52"/>
     <mergeCell ref="X51:Z52"/>
     <mergeCell ref="A47:B47"/>
@@ -1987,10 +1969,52 @@
     <mergeCell ref="H51:I52"/>
     <mergeCell ref="J51:L52"/>
     <mergeCell ref="M51:S52"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="C36:P36"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:E33"/>
+    <mergeCell ref="F32:H33"/>
+    <mergeCell ref="C25:P25"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="U32:AA33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="Q32:T33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="R21:T22"/>
+    <mergeCell ref="K21:M22"/>
+    <mergeCell ref="N21:Q22"/>
+    <mergeCell ref="U21:AA22"/>
+    <mergeCell ref="C13:P13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C12:M12"/>
+    <mergeCell ref="K9:Q10"/>
+    <mergeCell ref="R9:T10"/>
+    <mergeCell ref="U9:X10"/>
+    <mergeCell ref="Y9:AA10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="34" max="90" man="1"/>
   </colBreaks>
@@ -2006,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AR73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="AC63" sqref="AC63"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="AO60" sqref="AO60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="1.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2016,14 +2040,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:44">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
     </row>
     <row r="3" spans="2:44">
       <c r="B3" t="s">
@@ -2031,42 +2055,42 @@
       </c>
     </row>
     <row r="4" spans="2:44">
-      <c r="C4" s="33">
-        <v>0</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="H4" s="33">
+      <c r="C4" s="57">
+        <v>0</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="H4" s="57">
         <v>5</v>
       </c>
-      <c r="I4" s="33"/>
-      <c r="M4" s="33">
+      <c r="I4" s="57"/>
+      <c r="M4" s="57">
         <v>10</v>
       </c>
-      <c r="N4" s="33"/>
-      <c r="R4" s="33">
+      <c r="N4" s="57"/>
+      <c r="R4" s="57">
         <v>15</v>
       </c>
-      <c r="S4" s="33"/>
-      <c r="W4" s="33">
+      <c r="S4" s="57"/>
+      <c r="W4" s="57">
         <v>20</v>
       </c>
-      <c r="X4" s="33"/>
-      <c r="AB4" s="33">
+      <c r="X4" s="57"/>
+      <c r="AB4" s="57">
         <v>25</v>
       </c>
-      <c r="AC4" s="33"/>
-      <c r="AG4" s="33">
+      <c r="AC4" s="57"/>
+      <c r="AG4" s="57">
         <v>30</v>
       </c>
-      <c r="AH4" s="33"/>
-      <c r="AL4" s="33">
+      <c r="AH4" s="57"/>
+      <c r="AL4" s="57">
         <v>35</v>
       </c>
-      <c r="AM4" s="33"/>
-      <c r="AQ4" s="33">
+      <c r="AM4" s="57"/>
+      <c r="AQ4" s="57">
         <v>40</v>
       </c>
-      <c r="AR4" s="33"/>
+      <c r="AR4" s="57"/>
     </row>
     <row r="5" spans="2:44">
       <c r="C5" s="11"/>
@@ -2113,53 +2137,53 @@
     </row>
     <row r="6" spans="2:44" ht="15" customHeight="1">
       <c r="C6" s="5"/>
-      <c r="D6" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="36" t="s">
+      <c r="D6" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="42" t="s">
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="88" t="s">
         <v>2</v>
       </c>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="13"/>
-      <c r="AD6" s="42" t="s">
+      <c r="AD6" s="88" t="s">
         <v>2</v>
       </c>
       <c r="AE6" s="13"/>
       <c r="AF6" s="13"/>
       <c r="AG6" s="13"/>
       <c r="AH6" s="13"/>
-      <c r="AI6" s="42" t="s">
+      <c r="AI6" s="88" t="s">
         <v>2</v>
       </c>
       <c r="AJ6" s="13"/>
       <c r="AK6" s="13"/>
       <c r="AL6" s="13"/>
       <c r="AM6" s="13"/>
-      <c r="AN6" s="42" t="s">
+      <c r="AN6" s="88" t="s">
         <v>2</v>
       </c>
       <c r="AO6" s="17"/>
@@ -2168,43 +2192,43 @@
     </row>
     <row r="7" spans="2:44" ht="15" customHeight="1">
       <c r="C7" s="5"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="43"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="89"/>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="10"/>
       <c r="AC7" s="14"/>
-      <c r="AD7" s="43"/>
+      <c r="AD7" s="89"/>
       <c r="AE7" s="14"/>
       <c r="AF7" s="14"/>
       <c r="AG7" s="14"/>
       <c r="AH7" s="14"/>
-      <c r="AI7" s="43"/>
+      <c r="AI7" s="89"/>
       <c r="AJ7" s="14"/>
       <c r="AK7" s="14"/>
       <c r="AL7" s="14"/>
       <c r="AM7" s="14"/>
-      <c r="AN7" s="43"/>
+      <c r="AN7" s="89"/>
       <c r="AO7" s="19"/>
       <c r="AP7" s="19"/>
       <c r="AQ7" s="20"/>
@@ -2232,26 +2256,26 @@
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
-      <c r="Z8" s="44" t="s">
+      <c r="Z8" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="46"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="84"/>
       <c r="AD8" s="13"/>
-      <c r="AE8" s="44" t="s">
+      <c r="AE8" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="46"/>
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="84"/>
       <c r="AI8" s="13"/>
-      <c r="AJ8" s="44" t="s">
+      <c r="AJ8" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="46"/>
+      <c r="AK8" s="83"/>
+      <c r="AL8" s="83"/>
+      <c r="AM8" s="84"/>
       <c r="AN8" s="13"/>
       <c r="AO8" s="17"/>
       <c r="AP8" s="17"/>
@@ -2280,68 +2304,68 @@
       <c r="W9" s="14"/>
       <c r="X9" s="14"/>
       <c r="Y9" s="14"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="49"/>
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="87"/>
       <c r="AD9" s="14"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="48"/>
-      <c r="AH9" s="49"/>
+      <c r="AE9" s="85"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="87"/>
       <c r="AI9" s="14"/>
-      <c r="AJ9" s="47"/>
-      <c r="AK9" s="48"/>
-      <c r="AL9" s="48"/>
-      <c r="AM9" s="49"/>
+      <c r="AJ9" s="85"/>
+      <c r="AK9" s="86"/>
+      <c r="AL9" s="86"/>
+      <c r="AM9" s="87"/>
       <c r="AN9" s="14"/>
       <c r="AO9" s="19"/>
       <c r="AP9" s="19"/>
       <c r="AQ9" s="20"/>
     </row>
     <row r="12" spans="2:44">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="57"/>
     </row>
     <row r="15" spans="2:44">
-      <c r="C15" s="33">
-        <v>0</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="H15" s="33">
+      <c r="C15" s="57">
+        <v>0</v>
+      </c>
+      <c r="D15" s="57"/>
+      <c r="H15" s="57">
         <v>5</v>
       </c>
-      <c r="I15" s="33"/>
-      <c r="M15" s="33">
+      <c r="I15" s="57"/>
+      <c r="M15" s="57">
         <v>10</v>
       </c>
-      <c r="N15" s="33"/>
-      <c r="R15" s="33">
+      <c r="N15" s="57"/>
+      <c r="R15" s="57">
         <v>15</v>
       </c>
-      <c r="S15" s="33"/>
-      <c r="W15" s="33">
+      <c r="S15" s="57"/>
+      <c r="W15" s="57">
         <v>20</v>
       </c>
-      <c r="X15" s="33"/>
-      <c r="AB15" s="33">
+      <c r="X15" s="57"/>
+      <c r="AB15" s="57">
         <v>25</v>
       </c>
-      <c r="AC15" s="33"/>
-      <c r="AG15" s="33">
+      <c r="AC15" s="57"/>
+      <c r="AG15" s="57">
         <v>30</v>
       </c>
-      <c r="AH15" s="33"/>
-      <c r="AL15" s="33">
+      <c r="AH15" s="57"/>
+      <c r="AL15" s="57">
         <v>35</v>
       </c>
-      <c r="AM15" s="33"/>
-      <c r="AQ15" s="33">
+      <c r="AM15" s="57"/>
+      <c r="AQ15" s="57">
         <v>40</v>
       </c>
-      <c r="AR15" s="33"/>
+      <c r="AR15" s="57"/>
     </row>
     <row r="16" spans="2:44">
       <c r="C16" s="11"/>
@@ -2388,54 +2412,54 @@
     </row>
     <row r="17" spans="2:44" ht="15" customHeight="1">
       <c r="C17" s="5"/>
-      <c r="D17" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="36" t="s">
+      <c r="D17" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="42" t="s">
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="O17" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="36" t="s">
+      <c r="O17" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="42" t="s">
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="Z17" s="42" t="s">
+      <c r="Z17" s="88" t="s">
         <v>1</v>
       </c>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="13"/>
-      <c r="AD17" s="42" t="s">
+      <c r="AD17" s="88" t="s">
         <v>2</v>
       </c>
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
       <c r="AG17" s="13"/>
       <c r="AH17" s="13"/>
-      <c r="AI17" s="42" t="s">
+      <c r="AI17" s="88" t="s">
         <v>2</v>
       </c>
       <c r="AJ17" s="17"/>
@@ -2449,38 +2473,38 @@
     </row>
     <row r="18" spans="2:44" ht="15" customHeight="1">
       <c r="C18" s="5"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
       <c r="AC18" s="14"/>
-      <c r="AD18" s="43"/>
+      <c r="AD18" s="89"/>
       <c r="AE18" s="14"/>
       <c r="AF18" s="14"/>
       <c r="AG18" s="14"/>
       <c r="AH18" s="14"/>
-      <c r="AI18" s="43"/>
+      <c r="AI18" s="89"/>
       <c r="AJ18" s="19"/>
       <c r="AK18" s="19"/>
       <c r="AL18" s="19"/>
@@ -2502,12 +2526,12 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
-      <c r="O19" s="44" t="s">
+      <c r="O19" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="46"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="84"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
@@ -2515,19 +2539,19 @@
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
-      <c r="Z19" s="44" t="s">
+      <c r="Z19" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="46"/>
+      <c r="AA19" s="83"/>
+      <c r="AB19" s="83"/>
+      <c r="AC19" s="84"/>
       <c r="AD19" s="13"/>
-      <c r="AE19" s="44" t="s">
+      <c r="AE19" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AF19" s="45"/>
-      <c r="AG19" s="45"/>
-      <c r="AH19" s="46"/>
+      <c r="AF19" s="83"/>
+      <c r="AG19" s="83"/>
+      <c r="AH19" s="84"/>
       <c r="AI19" s="15"/>
       <c r="AJ19" s="21"/>
       <c r="AK19" s="21"/>
@@ -2550,10 +2574,10 @@
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="49"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="87"/>
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
@@ -2561,15 +2585,15 @@
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="49"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="86"/>
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="87"/>
       <c r="AD20" s="14"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="49"/>
+      <c r="AE20" s="85"/>
+      <c r="AF20" s="86"/>
+      <c r="AG20" s="86"/>
+      <c r="AH20" s="87"/>
       <c r="AI20" s="16"/>
       <c r="AJ20" s="23"/>
       <c r="AK20" s="23"/>
@@ -2581,48 +2605,48 @@
       <c r="AQ20" s="20"/>
     </row>
     <row r="24" spans="2:44">
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="33"/>
+      <c r="C24" s="57"/>
     </row>
     <row r="27" spans="2:44">
-      <c r="C27" s="33">
-        <v>0</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="H27" s="33">
+      <c r="C27" s="57">
+        <v>0</v>
+      </c>
+      <c r="D27" s="57"/>
+      <c r="H27" s="57">
         <v>5</v>
       </c>
-      <c r="I27" s="33"/>
-      <c r="M27" s="33">
+      <c r="I27" s="57"/>
+      <c r="M27" s="57">
         <v>10</v>
       </c>
-      <c r="N27" s="33"/>
-      <c r="R27" s="33">
+      <c r="N27" s="57"/>
+      <c r="R27" s="57">
         <v>15</v>
       </c>
-      <c r="S27" s="33"/>
-      <c r="W27" s="33">
+      <c r="S27" s="57"/>
+      <c r="W27" s="57">
         <v>20</v>
       </c>
-      <c r="X27" s="33"/>
-      <c r="AB27" s="33">
+      <c r="X27" s="57"/>
+      <c r="AB27" s="57">
         <v>25</v>
       </c>
-      <c r="AC27" s="33"/>
-      <c r="AG27" s="33">
+      <c r="AC27" s="57"/>
+      <c r="AG27" s="57">
         <v>30</v>
       </c>
-      <c r="AH27" s="33"/>
-      <c r="AL27" s="33">
+      <c r="AH27" s="57"/>
+      <c r="AL27" s="57">
         <v>35</v>
       </c>
-      <c r="AM27" s="33"/>
-      <c r="AQ27" s="33">
+      <c r="AM27" s="57"/>
+      <c r="AQ27" s="57">
         <v>40</v>
       </c>
-      <c r="AR27" s="33"/>
+      <c r="AR27" s="57"/>
     </row>
     <row r="28" spans="2:44">
       <c r="C28" s="11"/>
@@ -2669,79 +2693,79 @@
     </row>
     <row r="29" spans="2:44" ht="15" customHeight="1">
       <c r="C29" s="5"/>
-      <c r="D29" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="42" t="s">
+      <c r="D29" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="G29" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="42" t="s">
+      <c r="G29" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" s="42" t="s">
+      <c r="I29" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="K29" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="L29" s="42" t="s">
+      <c r="K29" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="M29" s="42" t="s">
+      <c r="M29" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="N29" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="O29" s="42" t="s">
+      <c r="N29" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="P29" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="42" t="s">
+      <c r="P29" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="R29" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="S29" s="42" t="s">
+      <c r="R29" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="S29" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="T29" s="42" t="s">
+      <c r="T29" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="U29" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="V29" s="42" t="s">
+      <c r="U29" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="V29" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="W29" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="X29" s="42" t="s">
+      <c r="W29" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="X29" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="Y29" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="42" t="s">
+      <c r="Y29" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="AA29" s="42" t="s">
+      <c r="AA29" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="AB29" s="42" t="s">
+      <c r="AB29" s="88" t="s">
         <v>1</v>
       </c>
       <c r="AC29" s="17"/>
@@ -2762,31 +2786,31 @@
     </row>
     <row r="30" spans="2:44" ht="15" customHeight="1">
       <c r="C30" s="5"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="43"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="89"/>
+      <c r="AA30" s="89"/>
+      <c r="AB30" s="89"/>
       <c r="AC30" s="22"/>
       <c r="AD30" s="24"/>
       <c r="AE30" s="22"/>
@@ -2807,30 +2831,30 @@
       <c r="D31" s="15"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="44" t="s">
+      <c r="G31" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="46"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="84"/>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
-      <c r="N31" s="44" t="s">
+      <c r="N31" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="46"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="84"/>
       <c r="R31" s="7"/>
       <c r="S31" s="13"/>
       <c r="T31" s="13"/>
-      <c r="U31" s="44" t="s">
+      <c r="U31" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="46"/>
+      <c r="V31" s="83"/>
+      <c r="W31" s="83"/>
+      <c r="X31" s="84"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
@@ -2855,24 +2879,24 @@
       <c r="D32" s="16"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="49"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="87"/>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="49"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="87"/>
       <c r="R32" s="8"/>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="49"/>
+      <c r="U32" s="85"/>
+      <c r="V32" s="86"/>
+      <c r="W32" s="86"/>
+      <c r="X32" s="87"/>
       <c r="Y32" s="14"/>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
@@ -2894,644 +2918,743 @@
       <c r="AQ32" s="20"/>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="50"/>
-      <c r="Q45" s="50"/>
-      <c r="R45" s="50"/>
-      <c r="S45" s="50"/>
-      <c r="T45" s="50"/>
-      <c r="U45" s="50"/>
-      <c r="V45" s="50"/>
-      <c r="W45" s="50"/>
-      <c r="X45" s="50"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="33"/>
+      <c r="U45" s="33"/>
+      <c r="V45" s="33"/>
+      <c r="W45" s="33"/>
+      <c r="X45" s="33"/>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="50"/>
+      <c r="A46" s="33"/>
       <c r="B46" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:24">
-      <c r="A47" s="50"/>
+      <c r="A47" s="33"/>
     </row>
     <row r="48" spans="1:24">
-      <c r="A48" s="50"/>
+      <c r="A48" s="33"/>
     </row>
     <row r="49" spans="1:24">
-      <c r="A49" s="50"/>
+      <c r="A49" s="33"/>
     </row>
     <row r="50" spans="1:24">
-      <c r="A50" s="50"/>
+      <c r="A50" s="33"/>
     </row>
     <row r="51" spans="1:24">
-      <c r="A51" s="50"/>
-      <c r="B51" s="77" t="s">
+      <c r="A51" s="33"/>
+      <c r="B51" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77" t="s">
+      <c r="C51" s="94"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77" t="s">
+      <c r="G51" s="94"/>
+      <c r="H51" s="94"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="K51" s="77"/>
-      <c r="L51" s="77"/>
-      <c r="M51" s="77"/>
+      <c r="K51" s="94"/>
+      <c r="L51" s="94"/>
+      <c r="M51" s="94"/>
     </row>
     <row r="52" spans="1:24">
-      <c r="A52" s="50"/>
-      <c r="B52" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75">
-        <v>0</v>
-      </c>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="76" t="s">
+      <c r="A52" s="33"/>
+      <c r="B52" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95">
+        <v>0</v>
+      </c>
+      <c r="G52" s="95"/>
+      <c r="H52" s="95"/>
+      <c r="I52" s="95"/>
+      <c r="J52" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
+      <c r="K52" s="90"/>
+      <c r="L52" s="90"/>
+      <c r="M52" s="90"/>
     </row>
     <row r="53" spans="1:24">
-      <c r="A53" s="50"/>
-      <c r="B53" s="75" t="s">
+      <c r="A53" s="33"/>
+      <c r="B53" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75">
-        <v>0</v>
-      </c>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="76" t="s">
+      <c r="C53" s="95"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="95">
+        <v>0</v>
+      </c>
+      <c r="G53" s="95"/>
+      <c r="H53" s="95"/>
+      <c r="I53" s="95"/>
+      <c r="J53" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="76"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="90"/>
+      <c r="M53" s="90"/>
     </row>
     <row r="54" spans="1:24">
-      <c r="A54" s="50"/>
-      <c r="B54" s="75" t="s">
+      <c r="A54" s="33"/>
+      <c r="B54" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="75"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75">
-        <v>0</v>
-      </c>
-      <c r="G54" s="75"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="76" t="s">
+      <c r="C54" s="95"/>
+      <c r="D54" s="95"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="95">
+        <v>0</v>
+      </c>
+      <c r="G54" s="95"/>
+      <c r="H54" s="95"/>
+      <c r="I54" s="95"/>
+      <c r="J54" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="K54" s="76"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="76"/>
+      <c r="K54" s="90"/>
+      <c r="L54" s="90"/>
+      <c r="M54" s="90"/>
     </row>
     <row r="55" spans="1:24">
-      <c r="A55" s="50"/>
-      <c r="U55" s="50"/>
-      <c r="V55" s="50"/>
-      <c r="W55" s="50"/>
-      <c r="X55" s="50"/>
+      <c r="A55" s="33"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="33"/>
+      <c r="W55" s="33"/>
+      <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24">
-      <c r="E56" s="51"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="51" t="s">
+      <c r="E56" s="34"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="51"/>
-      <c r="M56" s="51"/>
-      <c r="N56" s="51"/>
-      <c r="T56" s="50"/>
-      <c r="U56" s="50"/>
-      <c r="V56" s="50"/>
-      <c r="W56" s="50"/>
-      <c r="X56" s="50"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="33"/>
+      <c r="V56" s="33"/>
+      <c r="W56" s="33"/>
+      <c r="X56" s="33"/>
     </row>
     <row r="57" spans="1:24">
-      <c r="A57" s="50"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="50"/>
-      <c r="M57" s="50"/>
-      <c r="N57" s="50"/>
-      <c r="O57" s="50"/>
-      <c r="P57" s="50"/>
-      <c r="Q57" s="50"/>
-      <c r="R57" s="50"/>
-      <c r="S57" s="50"/>
-      <c r="T57" s="50"/>
-      <c r="U57" s="50"/>
-      <c r="V57" s="50"/>
-      <c r="W57" s="50"/>
-      <c r="X57" s="50"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="33"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="33"/>
+      <c r="X57" s="33"/>
     </row>
     <row r="58" spans="1:24">
-      <c r="A58" s="50"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="56">
-        <v>0</v>
-      </c>
-      <c r="D58" s="56"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="51">
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="66">
+        <v>0</v>
+      </c>
+      <c r="D58" s="66"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="34">
         <v>5</v>
       </c>
-      <c r="I58" s="51"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="50"/>
-      <c r="L58" s="50"/>
-      <c r="M58" s="56">
+      <c r="I58" s="34"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="66">
         <v>10</v>
       </c>
-      <c r="N58" s="56"/>
-      <c r="O58" s="50"/>
-      <c r="P58" s="50"/>
-      <c r="Q58" s="50"/>
-      <c r="R58" s="56">
+      <c r="N58" s="66"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="66">
         <v>15</v>
       </c>
-      <c r="S58" s="56"/>
-      <c r="T58" s="50"/>
-      <c r="U58" s="50"/>
-      <c r="V58" s="50"/>
-      <c r="W58" s="50"/>
-      <c r="X58" s="50"/>
+      <c r="S58" s="66"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="33"/>
+      <c r="X58" s="33"/>
     </row>
     <row r="59" spans="1:24">
-      <c r="A59" s="50"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="52"/>
-      <c r="S59" s="52"/>
-      <c r="T59" s="50"/>
-      <c r="U59" s="50"/>
-      <c r="V59" s="50"/>
-      <c r="W59" s="50"/>
-      <c r="X59" s="50"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="33"/>
+      <c r="V59" s="33"/>
+      <c r="W59" s="33"/>
+      <c r="X59" s="33"/>
     </row>
     <row r="60" spans="1:24">
-      <c r="A60" s="50"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="66" t="s">
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F60" s="67"/>
-      <c r="G60" s="66" t="s">
+      <c r="F60" s="96"/>
+      <c r="G60" s="79"/>
+      <c r="H60" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="H60" s="67"/>
-      <c r="I60" s="66" t="s">
+      <c r="I60" s="79"/>
+      <c r="J60" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="K60" s="79"/>
+      <c r="L60" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="M60" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="J60" s="67"/>
-      <c r="K60" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="L60" s="67"/>
-      <c r="M60" s="57" t="s">
+      <c r="N60" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="O60" s="98"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="41"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="33"/>
+      <c r="U60" s="33"/>
+      <c r="V60" s="33"/>
+      <c r="W60" s="33"/>
+      <c r="X60" s="33"/>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="97"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="81"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="81"/>
+      <c r="L61" s="77"/>
+      <c r="M61" s="77"/>
+      <c r="N61" s="77"/>
+      <c r="O61" s="99"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="43"/>
+      <c r="R61" s="43"/>
+      <c r="S61" s="44"/>
+      <c r="T61" s="33"/>
+      <c r="U61" s="33"/>
+      <c r="V61" s="33"/>
+      <c r="W61" s="33"/>
+      <c r="X61" s="33"/>
+    </row>
+    <row r="62" spans="1:24">
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="70"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="N60" s="57" t="s">
+      <c r="I62" s="73"/>
+      <c r="J62" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="O60" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="P60" s="78"/>
-      <c r="Q60" s="78"/>
-      <c r="R60" s="78"/>
-      <c r="S60" s="79"/>
-      <c r="T60" s="50"/>
-      <c r="U60" s="50"/>
-      <c r="V60" s="50"/>
-      <c r="W60" s="50"/>
-      <c r="X60" s="50"/>
-    </row>
-    <row r="61" spans="1:24">
-      <c r="A61" s="50"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="87"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="69"/>
-      <c r="M61" s="59"/>
-      <c r="N61" s="84"/>
-      <c r="O61" s="58"/>
-      <c r="P61" s="80"/>
-      <c r="Q61" s="80"/>
-      <c r="R61" s="80"/>
-      <c r="S61" s="81"/>
-      <c r="T61" s="50"/>
-      <c r="U61" s="50"/>
-      <c r="V61" s="50"/>
-      <c r="W61" s="50"/>
-      <c r="X61" s="50"/>
-    </row>
-    <row r="62" spans="1:24">
-      <c r="A62" s="50"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="F62" s="61"/>
-      <c r="G62" s="89"/>
-      <c r="H62" s="60" t="s">
+      <c r="K62" s="73"/>
+      <c r="L62" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="M62" s="73"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="100"/>
+      <c r="P62" s="48"/>
+      <c r="Q62" s="48"/>
+      <c r="R62" s="48"/>
+      <c r="S62" s="49"/>
+      <c r="T62" s="33"/>
+      <c r="U62" s="33"/>
+      <c r="V62" s="33"/>
+      <c r="W62" s="33"/>
+      <c r="X62" s="33"/>
+    </row>
+    <row r="63" spans="1:24">
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="91"/>
+      <c r="F63" s="92"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="91"/>
+      <c r="I63" s="93"/>
+      <c r="J63" s="91"/>
+      <c r="K63" s="93"/>
+      <c r="L63" s="91"/>
+      <c r="M63" s="93"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38"/>
+      <c r="R63" s="38"/>
+      <c r="S63" s="45"/>
+      <c r="T63" s="33"/>
+      <c r="U63" s="33"/>
+      <c r="V63" s="33"/>
+      <c r="W63" s="33"/>
+      <c r="X63" s="33"/>
+    </row>
+    <row r="64" spans="1:24">
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="33"/>
+      <c r="T64" s="33"/>
+      <c r="U64" s="33"/>
+      <c r="V64" s="33"/>
+      <c r="W64" s="33"/>
+      <c r="X64" s="33"/>
+    </row>
+    <row r="65" spans="1:24">
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="33"/>
+      <c r="U65" s="33"/>
+      <c r="V65" s="33"/>
+      <c r="W65" s="33"/>
+      <c r="X65" s="33"/>
+    </row>
+    <row r="66" spans="1:24">
+      <c r="A66" s="33"/>
+      <c r="B66" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="66"/>
+      <c r="J66" s="66"/>
+      <c r="K66" s="66"/>
+      <c r="L66" s="66"/>
+      <c r="M66" s="66"/>
+      <c r="N66" s="66"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
+      <c r="V66" s="33"/>
+      <c r="W66" s="33"/>
+      <c r="X66" s="33"/>
+    </row>
+    <row r="67" spans="1:24">
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="33"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="33"/>
+      <c r="S67" s="33"/>
+      <c r="T67" s="33"/>
+      <c r="U67" s="33"/>
+      <c r="V67" s="33"/>
+      <c r="W67" s="33"/>
+      <c r="X67" s="33"/>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="B68" s="33"/>
+      <c r="C68" s="66">
+        <v>0</v>
+      </c>
+      <c r="D68" s="66"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="66">
+        <v>5</v>
+      </c>
+      <c r="I68" s="66"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="66">
+        <v>10</v>
+      </c>
+      <c r="N68" s="66"/>
+      <c r="O68" s="33"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="66">
+        <v>15</v>
+      </c>
+      <c r="S68" s="66"/>
+      <c r="T68" s="33"/>
+    </row>
+    <row r="69" spans="1:24">
+      <c r="B69" s="33"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="33"/>
+    </row>
+    <row r="70" spans="1:24">
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="I62" s="70"/>
-      <c r="J62" s="60" t="s">
+      <c r="F70" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="K62" s="70"/>
-      <c r="L62" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="M62" s="70"/>
-      <c r="N62" s="64"/>
-      <c r="O62" s="89"/>
-      <c r="P62" s="89"/>
-      <c r="Q62" s="89"/>
-      <c r="R62" s="89"/>
-      <c r="S62" s="90"/>
-      <c r="T62" s="50"/>
-      <c r="U62" s="50"/>
-      <c r="V62" s="50"/>
-      <c r="W62" s="50"/>
-      <c r="X62" s="50"/>
-    </row>
-    <row r="63" spans="1:24">
-      <c r="A63" s="50"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="91"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="71"/>
-      <c r="M63" s="72"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="55"/>
-      <c r="P63" s="55"/>
-      <c r="Q63" s="55"/>
-      <c r="R63" s="55"/>
-      <c r="S63" s="82"/>
-      <c r="T63" s="50"/>
-      <c r="U63" s="50"/>
-      <c r="V63" s="50"/>
-      <c r="W63" s="50"/>
-      <c r="X63" s="50"/>
-    </row>
-    <row r="64" spans="1:24">
-      <c r="A64" s="50"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
-      <c r="L64" s="50"/>
-      <c r="M64" s="50"/>
-      <c r="N64" s="50"/>
-      <c r="O64" s="50"/>
-      <c r="P64" s="50"/>
-      <c r="Q64" s="50"/>
-      <c r="R64" s="50"/>
-      <c r="S64" s="50"/>
-      <c r="T64" s="50"/>
-      <c r="U64" s="50"/>
-      <c r="V64" s="50"/>
-      <c r="W64" s="50"/>
-      <c r="X64" s="50"/>
-    </row>
-    <row r="65" spans="1:24">
-      <c r="A65" s="50"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="50"/>
-      <c r="L65" s="50"/>
-      <c r="M65" s="50"/>
-      <c r="N65" s="50"/>
-      <c r="O65" s="50"/>
-      <c r="P65" s="50"/>
-      <c r="Q65" s="50"/>
-      <c r="R65" s="50"/>
-      <c r="S65" s="50"/>
-      <c r="T65" s="50"/>
-      <c r="U65" s="50"/>
-      <c r="V65" s="50"/>
-      <c r="W65" s="50"/>
-      <c r="X65" s="50"/>
-    </row>
-    <row r="66" spans="1:24">
-      <c r="A66" s="50"/>
-      <c r="B66" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="56"/>
-      <c r="K66" s="56"/>
-      <c r="L66" s="56"/>
-      <c r="M66" s="56"/>
-      <c r="N66" s="56"/>
-      <c r="O66" s="50"/>
-      <c r="P66" s="50"/>
-      <c r="Q66" s="50"/>
-      <c r="R66" s="50"/>
-      <c r="S66" s="50"/>
-      <c r="T66" s="50"/>
-      <c r="U66" s="50"/>
-      <c r="V66" s="50"/>
-      <c r="W66" s="50"/>
-      <c r="X66" s="50"/>
-    </row>
-    <row r="67" spans="1:24">
-      <c r="A67" s="50"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="50"/>
-      <c r="L67" s="50"/>
-      <c r="M67" s="50"/>
-      <c r="N67" s="50"/>
-      <c r="O67" s="50"/>
-      <c r="P67" s="50"/>
-      <c r="Q67" s="50"/>
-      <c r="R67" s="50"/>
-      <c r="S67" s="50"/>
-      <c r="T67" s="50"/>
-      <c r="U67" s="50"/>
-      <c r="V67" s="50"/>
-      <c r="W67" s="50"/>
-      <c r="X67" s="50"/>
-    </row>
-    <row r="68" spans="1:24">
-      <c r="B68" s="50"/>
-      <c r="C68" s="56">
-        <v>0</v>
-      </c>
-      <c r="D68" s="56"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="56">
-        <v>5</v>
-      </c>
-      <c r="I68" s="56"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="50"/>
-      <c r="L68" s="50"/>
-      <c r="M68" s="56">
-        <v>10</v>
-      </c>
-      <c r="N68" s="56"/>
-      <c r="O68" s="50"/>
-      <c r="P68" s="50"/>
-      <c r="Q68" s="50"/>
-      <c r="R68" s="56">
-        <v>15</v>
-      </c>
-      <c r="S68" s="56"/>
-      <c r="T68" s="50"/>
-    </row>
-    <row r="69" spans="1:24">
-      <c r="B69" s="50"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="52"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="52"/>
-      <c r="M69" s="52"/>
-      <c r="N69" s="52"/>
-      <c r="O69" s="52"/>
-      <c r="P69" s="52"/>
-      <c r="Q69" s="52"/>
-      <c r="R69" s="52"/>
-      <c r="S69" s="52"/>
-      <c r="T69" s="50"/>
-    </row>
-    <row r="70" spans="1:24">
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="E70" s="57" t="s">
+      <c r="G70" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="F70" s="57" t="s">
+      <c r="H70" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G70" s="57" t="s">
+      <c r="I70" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="J70" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="H70" s="57" t="s">
+      <c r="K70" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="L70" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="I70" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="J70" s="57" t="s">
+      <c r="M70" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="K70" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="L70" s="57" t="s">
+      <c r="N70" s="41"/>
+      <c r="O70" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="P70" s="41"/>
+      <c r="Q70" s="41"/>
+      <c r="R70" s="41"/>
+      <c r="S70" s="42"/>
+      <c r="T70" s="33"/>
+    </row>
+    <row r="71" spans="1:24">
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="68"/>
+      <c r="H71" s="68"/>
+      <c r="I71" s="77"/>
+      <c r="J71" s="77"/>
+      <c r="K71" s="77"/>
+      <c r="L71" s="77"/>
+      <c r="M71" s="77"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="68"/>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="43"/>
+      <c r="R71" s="43"/>
+      <c r="S71" s="44"/>
+      <c r="T71" s="33"/>
+    </row>
+    <row r="72" spans="1:24">
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="70"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="M70" s="57" t="s">
+      <c r="J72" s="73"/>
+      <c r="K72" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="N70" s="78"/>
-      <c r="O70" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="P70" s="78"/>
-      <c r="Q70" s="78"/>
-      <c r="R70" s="78"/>
-      <c r="S70" s="79"/>
-      <c r="T70" s="50"/>
-    </row>
-    <row r="71" spans="1:24">
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="58"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="59"/>
-      <c r="L71" s="59"/>
-      <c r="M71" s="59"/>
-      <c r="N71" s="80"/>
-      <c r="O71" s="58"/>
-      <c r="P71" s="80"/>
-      <c r="Q71" s="80"/>
-      <c r="R71" s="80"/>
-      <c r="S71" s="81"/>
-      <c r="T71" s="50"/>
-    </row>
-    <row r="72" spans="1:24">
-      <c r="B72" s="50"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="F72" s="61"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="J72" s="70"/>
-      <c r="K72" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="L72" s="61"/>
-      <c r="M72" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="N72" s="61"/>
-      <c r="O72" s="50"/>
-      <c r="P72" s="50"/>
-      <c r="Q72" s="50"/>
-      <c r="R72" s="50"/>
-      <c r="S72" s="52"/>
-      <c r="T72" s="50"/>
+      <c r="L72" s="70"/>
+      <c r="M72" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="N72" s="70"/>
+      <c r="O72" s="33"/>
+      <c r="P72" s="33"/>
+      <c r="Q72" s="33"/>
+      <c r="R72" s="33"/>
+      <c r="S72" s="35"/>
+      <c r="T72" s="33"/>
     </row>
     <row r="73" spans="1:24">
-      <c r="B73" s="50"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="62"/>
-      <c r="J73" s="83"/>
-      <c r="K73" s="62"/>
-      <c r="L73" s="63"/>
-      <c r="M73" s="74"/>
-      <c r="N73" s="63"/>
-      <c r="O73" s="55"/>
-      <c r="P73" s="55"/>
-      <c r="Q73" s="55"/>
-      <c r="R73" s="55"/>
-      <c r="S73" s="82"/>
-      <c r="T73" s="50"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="71"/>
+      <c r="J73" s="74"/>
+      <c r="K73" s="71"/>
+      <c r="L73" s="72"/>
+      <c r="M73" s="76"/>
+      <c r="N73" s="72"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
+      <c r="Q73" s="38"/>
+      <c r="R73" s="38"/>
+      <c r="S73" s="45"/>
+      <c r="T73" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="126">
+  <mergeCells count="125">
+    <mergeCell ref="E60:G61"/>
+    <mergeCell ref="H60:I61"/>
+    <mergeCell ref="J60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="U31:X32"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AL27:AM27"/>
+    <mergeCell ref="AQ27:AR27"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="AI17:AI18"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="T17:X18"/>
+    <mergeCell ref="Z19:AC20"/>
+    <mergeCell ref="AE19:AH20"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="D6:M7"/>
+    <mergeCell ref="N6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AL15:AM15"/>
+    <mergeCell ref="AQ15:AR15"/>
+    <mergeCell ref="AE8:AH9"/>
+    <mergeCell ref="AJ8:AM9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="Z8:AC9"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="G31:J32"/>
+    <mergeCell ref="N31:Q32"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="O17:S18"/>
+    <mergeCell ref="O19:R20"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="I17:M18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="E62:F63"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="H62:I63"/>
+    <mergeCell ref="J62:K63"/>
+    <mergeCell ref="L62:M63"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="H15:I15"/>
@@ -3556,108 +3679,6 @@
     <mergeCell ref="H70:H71"/>
     <mergeCell ref="B66:N66"/>
     <mergeCell ref="C68:D68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:F61"/>
-    <mergeCell ref="G60:H61"/>
-    <mergeCell ref="O17:S18"/>
-    <mergeCell ref="O19:R20"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="I17:M18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="E62:F63"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="I60:J61"/>
-    <mergeCell ref="K60:L61"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="H62:I63"/>
-    <mergeCell ref="J62:K63"/>
-    <mergeCell ref="L62:M63"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="Z8:AC9"/>
-    <mergeCell ref="AE8:AH9"/>
-    <mergeCell ref="AJ8:AM9"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="D6:M7"/>
-    <mergeCell ref="N6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AL15:AM15"/>
-    <mergeCell ref="AQ15:AR15"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AI17:AI18"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="T17:X18"/>
-    <mergeCell ref="Z19:AC20"/>
-    <mergeCell ref="AE19:AH20"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AL27:AM27"/>
-    <mergeCell ref="AQ27:AR27"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="G31:J32"/>
-    <mergeCell ref="N31:Q32"/>
-    <mergeCell ref="U31:X32"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="O29:O30"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Hausaufgabe4/Aufgaben.xlsx
+++ b/Hausaufgabe4/Aufgaben.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
     <sheet name="Blatt2" sheetId="2" r:id="rId2"/>
+    <sheet name="Blatt3" sheetId="3" r:id="rId3"/>
+    <sheet name="Blatt4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Blatt1!$A$1:$AH$91</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="69">
   <si>
     <t>P1</t>
   </si>
@@ -44,9 +45,6 @@
     <t>P6</t>
   </si>
   <si>
-    <t>Aufgabe 1)</t>
-  </si>
-  <si>
     <t>a)</t>
   </si>
   <si>
@@ -77,9 +75,6 @@
     <t>(0 + 5+ 5 + 9 + 11 + 11)/6 =(41)/6</t>
   </si>
   <si>
-    <t>Aufgabe 2)</t>
-  </si>
-  <si>
     <t>ii)</t>
   </si>
   <si>
@@ -111,6 +106,132 @@
   </si>
   <si>
     <t>Round Robin mit Quantum 1:</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Kl. 0 RR(1)</t>
+  </si>
+  <si>
+    <t>Kl. 1 RR(4)</t>
+  </si>
+  <si>
+    <t>Kl. 2 RR(16)</t>
+  </si>
+  <si>
+    <t>Kl. 3 FIFO</t>
+  </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>Incoming</t>
+  </si>
+  <si>
+    <t>A(6),B(7)</t>
+  </si>
+  <si>
+    <t>A(6)</t>
+  </si>
+  <si>
+    <t>B(7)</t>
+  </si>
+  <si>
+    <t>C(1)</t>
+  </si>
+  <si>
+    <t>B(6)</t>
+  </si>
+  <si>
+    <t>D(2)</t>
+  </si>
+  <si>
+    <t>A(6), D(2)</t>
+  </si>
+  <si>
+    <t>B(5)</t>
+  </si>
+  <si>
+    <t>B(4)</t>
+  </si>
+  <si>
+    <t>E(17)</t>
+  </si>
+  <si>
+    <t>D(2), B(3)</t>
+  </si>
+  <si>
+    <t>A(5)</t>
+  </si>
+  <si>
+    <t>A(4)</t>
+  </si>
+  <si>
+    <t>A(3)</t>
+  </si>
+  <si>
+    <t>A(2)</t>
+  </si>
+  <si>
+    <t>F(3)</t>
+  </si>
+  <si>
+    <t>A(1), D(2), B(3)</t>
+  </si>
+  <si>
+    <t>F(2)</t>
+  </si>
+  <si>
+    <t>F(1)</t>
+  </si>
+  <si>
+    <t>G(5)</t>
+  </si>
+  <si>
+    <t>G(4)</t>
+  </si>
+  <si>
+    <t>H(3)</t>
+  </si>
+  <si>
+    <t>G(3)</t>
+  </si>
+  <si>
+    <t>I(3)</t>
+  </si>
+  <si>
+    <t>H(3), I(3)</t>
+  </si>
+  <si>
+    <t>G(2)</t>
+  </si>
+  <si>
+    <t>G(1)</t>
+  </si>
+  <si>
+    <t>H(2)</t>
+  </si>
+  <si>
+    <t>Aufgabe 4.3)</t>
+  </si>
+  <si>
+    <t>Aufgabe 4.4)</t>
+  </si>
+  <si>
+    <t>CPU1</t>
+  </si>
+  <si>
+    <t>CPU2</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>Aufgabe 4.1)</t>
+  </si>
+  <si>
+    <t>Aufgabe 4.2)</t>
   </si>
 </sst>
 </file>
@@ -442,7 +563,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="114">
+  <cellStyleXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -557,8 +678,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -587,24 +728,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,155 +750,167 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="114">
+  <cellStyles count="134">
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="7" builtinId="9" hidden="1"/>
@@ -832,6 +967,16 @@
     <cellStyle name="Besuchter Link" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="111" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="133" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
@@ -888,6 +1033,16 @@
     <cellStyle name="Link" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="110" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="132" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -905,7 +1060,7 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>135466</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5995081" cy="430887"/>
+    <xdr:ext cx="6239934" cy="430887"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Textfeld 1"/>
@@ -914,7 +1069,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="67733" y="9093199"/>
-          <a:ext cx="5995081" cy="430887"/>
+          <a:ext cx="6239934" cy="430887"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -942,20 +1097,145 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
+            <a:rPr lang="de-DE" sz="1200"/>
             <a:t>Das Round-Robin mit Quantum 1 maximiert die CPU-Auslastung. Dies ist</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:rPr lang="de-DE" sz="1200" baseline="0"/>
             <a:t> jedoch nicht immer so.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:rPr lang="de-DE" sz="1200" baseline="0"/>
             <a:t>Gegenbeispiel:</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5854700" cy="276999"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="177800" y="2349500"/>
+          <a:ext cx="5854700" cy="276999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200"/>
+            <a:t>Eine Deadline wird verletzt. (P2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" baseline="0"/>
+            <a:t> verspätet sich um eine Zeiteinheit)</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5672976" cy="461665"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Textfeld 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="139700" y="3187700"/>
+          <a:ext cx="5672976" cy="461665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200"/>
+            <a:t>Könnten die Prozesse verschoben werden,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" baseline="0"/>
+            <a:t> so wäre P2 auch zur Deadline fertig.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" baseline="0"/>
+            <a:t>Somit würde sich die Situation verbessern.</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1288,56 +1568,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AB56"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="BF26" sqref="BF26"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="4" spans="2:28">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+    </row>
+    <row r="5" spans="2:28">
+      <c r="B5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-    </row>
-    <row r="5" spans="2:28">
-      <c r="B5" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="57"/>
+      <c r="C5" s="54"/>
     </row>
     <row r="7" spans="2:28">
-      <c r="B7" s="57">
+      <c r="B7" s="54">
         <v>0</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="G7" s="57">
+      <c r="C7" s="54"/>
+      <c r="G7" s="54">
         <v>5</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="L7" s="57">
+      <c r="H7" s="54"/>
+      <c r="L7" s="54">
         <v>10</v>
       </c>
-      <c r="M7" s="57"/>
-      <c r="Q7" s="57">
+      <c r="M7" s="54"/>
+      <c r="Q7" s="54">
         <v>15</v>
       </c>
-      <c r="R7" s="57"/>
-      <c r="V7" s="57">
+      <c r="R7" s="54"/>
+      <c r="V7" s="54">
         <v>20</v>
       </c>
-      <c r="W7" s="57"/>
-      <c r="AA7" s="57">
+      <c r="W7" s="54"/>
+      <c r="AA7" s="54">
         <v>25</v>
       </c>
-      <c r="AB7" s="57"/>
+      <c r="AB7" s="54"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="11"/>
@@ -1369,136 +1649,136 @@
     </row>
     <row r="9" spans="2:28" ht="15" customHeight="1">
       <c r="B9" s="5"/>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="51" t="s">
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="53"/>
-      <c r="K9" s="51" t="s">
+      <c r="J9" s="60"/>
+      <c r="K9" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="51" t="s">
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="S9" s="52"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="51" t="s">
+      <c r="S9" s="59"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="51" t="s">
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="53"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="60"/>
     </row>
     <row r="10" spans="2:28" ht="15" customHeight="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="56"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="63"/>
     </row>
     <row r="12" spans="2:28">
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+    </row>
+    <row r="13" spans="2:28">
+      <c r="C13" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-    </row>
-    <row r="13" spans="2:28">
-      <c r="C13" s="50" t="s">
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+    </row>
+    <row r="17" spans="2:28">
+      <c r="B17" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-    </row>
-    <row r="17" spans="2:28">
-      <c r="B17" s="32" t="s">
+      <c r="C17" s="26"/>
+    </row>
+    <row r="19" spans="2:28">
+      <c r="B19" s="54">
+        <v>0</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="G19" s="54">
+        <v>5</v>
+      </c>
+      <c r="H19" s="54"/>
+      <c r="L19" s="54">
         <v>10</v>
       </c>
-      <c r="C17" s="32"/>
-    </row>
-    <row r="19" spans="2:28">
-      <c r="B19" s="57">
-        <v>0</v>
-      </c>
-      <c r="C19" s="57"/>
-      <c r="G19" s="57">
-        <v>5</v>
-      </c>
-      <c r="H19" s="57"/>
-      <c r="L19" s="57">
-        <v>10</v>
-      </c>
-      <c r="M19" s="57"/>
-      <c r="Q19" s="57">
+      <c r="M19" s="54"/>
+      <c r="Q19" s="54">
         <v>15</v>
       </c>
-      <c r="R19" s="57"/>
-      <c r="V19" s="57">
+      <c r="R19" s="54"/>
+      <c r="V19" s="54">
         <v>20</v>
       </c>
-      <c r="W19" s="57"/>
-      <c r="AA19" s="57">
+      <c r="W19" s="54"/>
+      <c r="AA19" s="54">
         <v>25</v>
       </c>
-      <c r="AB19" s="57"/>
+      <c r="AB19" s="54"/>
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="11"/>
@@ -1530,75 +1810,75 @@
     </row>
     <row r="21" spans="2:28" ht="15" customHeight="1">
       <c r="B21" s="5"/>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="51" t="s">
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J21" s="53"/>
-      <c r="K21" s="51" t="s">
+      <c r="J21" s="60"/>
+      <c r="K21" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="52"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="51" t="s">
+      <c r="L21" s="59"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="51" t="s">
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="S21" s="52"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="51" t="s">
+      <c r="S21" s="59"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="53"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="60"/>
     </row>
     <row r="22" spans="2:28" ht="15" customHeight="1">
       <c r="B22" s="5"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="55"/>
-      <c r="AA22" s="56"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="63"/>
     </row>
     <row r="24" spans="2:28">
       <c r="C24" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -1612,54 +1892,54 @@
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="2:28">
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+    </row>
+    <row r="28" spans="2:28">
+      <c r="B28" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-    </row>
-    <row r="28" spans="2:28">
-      <c r="B28" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="32"/>
+      <c r="C28" s="26"/>
     </row>
     <row r="30" spans="2:28">
-      <c r="B30" s="57">
+      <c r="B30" s="54">
         <v>0</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="G30" s="57">
+      <c r="C30" s="54"/>
+      <c r="G30" s="54">
         <v>5</v>
       </c>
-      <c r="H30" s="57"/>
-      <c r="L30" s="57">
+      <c r="H30" s="54"/>
+      <c r="L30" s="54">
         <v>10</v>
       </c>
-      <c r="M30" s="57"/>
-      <c r="Q30" s="57">
+      <c r="M30" s="54"/>
+      <c r="Q30" s="54">
         <v>15</v>
       </c>
-      <c r="R30" s="57"/>
-      <c r="V30" s="57">
+      <c r="R30" s="54"/>
+      <c r="V30" s="54">
         <v>20</v>
       </c>
-      <c r="W30" s="57"/>
-      <c r="AA30" s="57">
+      <c r="W30" s="54"/>
+      <c r="AA30" s="54">
         <v>25</v>
       </c>
-      <c r="AB30" s="57"/>
+      <c r="AB30" s="54"/>
     </row>
     <row r="31" spans="2:28">
       <c r="B31" s="11"/>
@@ -1691,77 +1971,77 @@
     </row>
     <row r="32" spans="2:28" ht="15" customHeight="1">
       <c r="B32" s="5"/>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="60"/>
-      <c r="F32" s="58" t="s">
+      <c r="E32" s="50"/>
+      <c r="F32" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="59"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="26" t="s">
+      <c r="G32" s="49"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="58" t="s">
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="O32" s="59"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="58" t="s">
+      <c r="O32" s="49"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="60"/>
-      <c r="U32" s="58" t="s">
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="60"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="49"/>
+      <c r="AA32" s="50"/>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1">
       <c r="B33" s="5"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="63"/>
-      <c r="U33" s="61"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="63"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="53"/>
     </row>
     <row r="35" spans="1:27">
       <c r="C35" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -1775,54 +2055,54 @@
       <c r="M35" s="6"/>
     </row>
     <row r="36" spans="1:27">
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+    </row>
+    <row r="47" spans="1:27">
+      <c r="A47" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="54"/>
+    </row>
+    <row r="49" spans="1:27">
+      <c r="A49" s="54">
+        <v>0</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="F49" s="54">
+        <v>5</v>
+      </c>
+      <c r="G49" s="54"/>
+      <c r="K49" s="54">
+        <v>10</v>
+      </c>
+      <c r="L49" s="54"/>
+      <c r="P49" s="54">
         <v>15</v>
       </c>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-    </row>
-    <row r="47" spans="1:27">
-      <c r="A47" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="57"/>
-    </row>
-    <row r="49" spans="1:27">
-      <c r="A49" s="57">
-        <v>0</v>
-      </c>
-      <c r="B49" s="57"/>
-      <c r="F49" s="57">
-        <v>5</v>
-      </c>
-      <c r="G49" s="57"/>
-      <c r="K49" s="57">
-        <v>10</v>
-      </c>
-      <c r="L49" s="57"/>
-      <c r="P49" s="57">
-        <v>15</v>
-      </c>
-      <c r="Q49" s="57"/>
-      <c r="U49" s="57">
+      <c r="Q49" s="54"/>
+      <c r="U49" s="54">
         <v>20</v>
       </c>
-      <c r="V49" s="57"/>
-      <c r="Z49" s="57">
+      <c r="V49" s="54"/>
+      <c r="Z49" s="54">
         <v>25</v>
       </c>
-      <c r="AA49" s="57"/>
+      <c r="AA49" s="54"/>
     </row>
     <row r="50" spans="1:27">
       <c r="A50" s="11"/>
@@ -1854,75 +2134,75 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="5"/>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="58" t="s">
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="I51" s="60"/>
-      <c r="J51" s="58" t="s">
+      <c r="I51" s="50"/>
+      <c r="J51" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="K51" s="59"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="58" t="s">
+      <c r="K51" s="49"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="N51" s="59"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="59"/>
-      <c r="S51" s="60"/>
-      <c r="T51" s="58" t="s">
+      <c r="N51" s="49"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="49"/>
+      <c r="Q51" s="49"/>
+      <c r="R51" s="49"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="U51" s="59"/>
-      <c r="V51" s="59"/>
-      <c r="W51" s="60"/>
-      <c r="X51" s="58" t="s">
+      <c r="U51" s="49"/>
+      <c r="V51" s="49"/>
+      <c r="W51" s="50"/>
+      <c r="X51" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="Y51" s="59"/>
-      <c r="Z51" s="60"/>
+      <c r="Y51" s="49"/>
+      <c r="Z51" s="50"/>
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="5"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="63"/>
-      <c r="M52" s="61"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="62"/>
-      <c r="R52" s="62"/>
-      <c r="S52" s="63"/>
-      <c r="T52" s="61"/>
-      <c r="U52" s="62"/>
-      <c r="V52" s="62"/>
-      <c r="W52" s="63"/>
-      <c r="X52" s="61"/>
-      <c r="Y52" s="62"/>
-      <c r="Z52" s="63"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52"/>
+      <c r="R52" s="52"/>
+      <c r="S52" s="53"/>
+      <c r="T52" s="51"/>
+      <c r="U52" s="52"/>
+      <c r="V52" s="52"/>
+      <c r="W52" s="53"/>
+      <c r="X52" s="51"/>
+      <c r="Y52" s="52"/>
+      <c r="Z52" s="53"/>
     </row>
     <row r="54" spans="1:27">
       <c r="B54" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1937,7 +2217,7 @@
     </row>
     <row r="55" spans="1:27">
       <c r="B55" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1956,7 +2236,50 @@
       <c r="O56" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="56">
+    <mergeCell ref="C12:M12"/>
+    <mergeCell ref="K9:Q10"/>
+    <mergeCell ref="R9:T10"/>
+    <mergeCell ref="U9:X10"/>
+    <mergeCell ref="Y9:AA10"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="C13:P13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="R21:T22"/>
+    <mergeCell ref="K21:M22"/>
+    <mergeCell ref="N21:Q22"/>
+    <mergeCell ref="U21:AA22"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="U32:AA33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="Q32:T33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="I32:M33"/>
+    <mergeCell ref="C36:P36"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:E33"/>
+    <mergeCell ref="F32:H33"/>
+    <mergeCell ref="C25:P25"/>
     <mergeCell ref="T51:W52"/>
     <mergeCell ref="X51:Z52"/>
     <mergeCell ref="A47:B47"/>
@@ -1970,51 +2293,10 @@
     <mergeCell ref="J51:L52"/>
     <mergeCell ref="M51:S52"/>
     <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="C36:P36"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:E33"/>
-    <mergeCell ref="F32:H33"/>
-    <mergeCell ref="C25:P25"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="U32:AA33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="Q32:T33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="C21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="R21:T22"/>
-    <mergeCell ref="K21:M22"/>
-    <mergeCell ref="N21:Q22"/>
-    <mergeCell ref="U21:AA22"/>
-    <mergeCell ref="C13:P13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C12:M12"/>
-    <mergeCell ref="K9:Q10"/>
-    <mergeCell ref="R9:T10"/>
-    <mergeCell ref="U9:X10"/>
-    <mergeCell ref="Y9:AA10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="34" max="90" man="1"/>
   </colBreaks>
@@ -2028,10 +2310,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AR73"/>
+  <dimension ref="A1:AR73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="AO60" sqref="AO60"/>
+    <sheetView topLeftCell="A42" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="AY17" sqref="AY17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="1.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2039,58 +2321,63 @@
     <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:44">
+      <c r="B1" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+    </row>
     <row r="2" spans="2:44">
-      <c r="B2" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="2:44">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:44">
-      <c r="C4" s="57">
+      <c r="C4" s="54">
         <v>0</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="H4" s="57">
+      <c r="D4" s="54"/>
+      <c r="H4" s="54">
         <v>5</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="M4" s="57">
+      <c r="I4" s="54"/>
+      <c r="M4" s="54">
         <v>10</v>
       </c>
-      <c r="N4" s="57"/>
-      <c r="R4" s="57">
+      <c r="N4" s="54"/>
+      <c r="R4" s="54">
         <v>15</v>
       </c>
-      <c r="S4" s="57"/>
-      <c r="W4" s="57">
+      <c r="S4" s="54"/>
+      <c r="W4" s="54">
         <v>20</v>
       </c>
-      <c r="X4" s="57"/>
-      <c r="AB4" s="57">
+      <c r="X4" s="54"/>
+      <c r="AB4" s="54">
         <v>25</v>
       </c>
-      <c r="AC4" s="57"/>
-      <c r="AG4" s="57">
+      <c r="AC4" s="54"/>
+      <c r="AG4" s="54">
         <v>30</v>
       </c>
-      <c r="AH4" s="57"/>
-      <c r="AL4" s="57">
+      <c r="AH4" s="54"/>
+      <c r="AL4" s="54">
         <v>35</v>
       </c>
-      <c r="AM4" s="57"/>
-      <c r="AQ4" s="57">
+      <c r="AM4" s="54"/>
+      <c r="AQ4" s="54">
         <v>40</v>
       </c>
-      <c r="AR4" s="57"/>
+      <c r="AR4" s="54"/>
     </row>
     <row r="5" spans="2:44">
       <c r="C5" s="11"/>
@@ -2137,53 +2424,53 @@
     </row>
     <row r="6" spans="2:44" ht="15" customHeight="1">
       <c r="C6" s="5"/>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="51" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="88" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="78" t="s">
         <v>2</v>
       </c>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="13"/>
-      <c r="AD6" s="88" t="s">
+      <c r="AD6" s="78" t="s">
         <v>2</v>
       </c>
       <c r="AE6" s="13"/>
       <c r="AF6" s="13"/>
       <c r="AG6" s="13"/>
       <c r="AH6" s="13"/>
-      <c r="AI6" s="88" t="s">
+      <c r="AI6" s="78" t="s">
         <v>2</v>
       </c>
       <c r="AJ6" s="13"/>
       <c r="AK6" s="13"/>
       <c r="AL6" s="13"/>
       <c r="AM6" s="13"/>
-      <c r="AN6" s="88" t="s">
+      <c r="AN6" s="78" t="s">
         <v>2</v>
       </c>
       <c r="AO6" s="17"/>
@@ -2192,43 +2479,43 @@
     </row>
     <row r="7" spans="2:44" ht="15" customHeight="1">
       <c r="C7" s="5"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="89"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="79"/>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="10"/>
       <c r="AC7" s="14"/>
-      <c r="AD7" s="89"/>
+      <c r="AD7" s="79"/>
       <c r="AE7" s="14"/>
       <c r="AF7" s="14"/>
       <c r="AG7" s="14"/>
       <c r="AH7" s="14"/>
-      <c r="AI7" s="89"/>
+      <c r="AI7" s="79"/>
       <c r="AJ7" s="14"/>
       <c r="AK7" s="14"/>
       <c r="AL7" s="14"/>
       <c r="AM7" s="14"/>
-      <c r="AN7" s="89"/>
+      <c r="AN7" s="79"/>
       <c r="AO7" s="19"/>
       <c r="AP7" s="19"/>
       <c r="AQ7" s="20"/>
@@ -2256,26 +2543,26 @@
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
-      <c r="Z8" s="82" t="s">
+      <c r="Z8" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="84"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="74"/>
       <c r="AD8" s="13"/>
-      <c r="AE8" s="82" t="s">
+      <c r="AE8" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AF8" s="83"/>
-      <c r="AG8" s="83"/>
-      <c r="AH8" s="84"/>
+      <c r="AF8" s="73"/>
+      <c r="AG8" s="73"/>
+      <c r="AH8" s="74"/>
       <c r="AI8" s="13"/>
-      <c r="AJ8" s="82" t="s">
+      <c r="AJ8" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AK8" s="83"/>
-      <c r="AL8" s="83"/>
-      <c r="AM8" s="84"/>
+      <c r="AK8" s="73"/>
+      <c r="AL8" s="73"/>
+      <c r="AM8" s="74"/>
       <c r="AN8" s="13"/>
       <c r="AO8" s="17"/>
       <c r="AP8" s="17"/>
@@ -2304,68 +2591,68 @@
       <c r="W9" s="14"/>
       <c r="X9" s="14"/>
       <c r="Y9" s="14"/>
-      <c r="Z9" s="85"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="87"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="77"/>
       <c r="AD9" s="14"/>
-      <c r="AE9" s="85"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="87"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="76"/>
+      <c r="AH9" s="77"/>
       <c r="AI9" s="14"/>
-      <c r="AJ9" s="85"/>
-      <c r="AK9" s="86"/>
-      <c r="AL9" s="86"/>
-      <c r="AM9" s="87"/>
+      <c r="AJ9" s="75"/>
+      <c r="AK9" s="76"/>
+      <c r="AL9" s="76"/>
+      <c r="AM9" s="77"/>
       <c r="AN9" s="14"/>
       <c r="AO9" s="19"/>
       <c r="AP9" s="19"/>
       <c r="AQ9" s="20"/>
     </row>
     <row r="12" spans="2:44">
-      <c r="B12" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="57"/>
+      <c r="B12" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="54"/>
     </row>
     <row r="15" spans="2:44">
-      <c r="C15" s="57">
+      <c r="C15" s="54">
         <v>0</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="H15" s="57">
+      <c r="D15" s="54"/>
+      <c r="H15" s="54">
         <v>5</v>
       </c>
-      <c r="I15" s="57"/>
-      <c r="M15" s="57">
+      <c r="I15" s="54"/>
+      <c r="M15" s="54">
         <v>10</v>
       </c>
-      <c r="N15" s="57"/>
-      <c r="R15" s="57">
+      <c r="N15" s="54"/>
+      <c r="R15" s="54">
         <v>15</v>
       </c>
-      <c r="S15" s="57"/>
-      <c r="W15" s="57">
+      <c r="S15" s="54"/>
+      <c r="W15" s="54">
         <v>20</v>
       </c>
-      <c r="X15" s="57"/>
-      <c r="AB15" s="57">
+      <c r="X15" s="54"/>
+      <c r="AB15" s="54">
         <v>25</v>
       </c>
-      <c r="AC15" s="57"/>
-      <c r="AG15" s="57">
+      <c r="AC15" s="54"/>
+      <c r="AG15" s="54">
         <v>30</v>
       </c>
-      <c r="AH15" s="57"/>
-      <c r="AL15" s="57">
+      <c r="AH15" s="54"/>
+      <c r="AL15" s="54">
         <v>35</v>
       </c>
-      <c r="AM15" s="57"/>
-      <c r="AQ15" s="57">
+      <c r="AM15" s="54"/>
+      <c r="AQ15" s="54">
         <v>40</v>
       </c>
-      <c r="AR15" s="57"/>
+      <c r="AR15" s="54"/>
     </row>
     <row r="16" spans="2:44">
       <c r="C16" s="11"/>
@@ -2412,54 +2699,54 @@
     </row>
     <row r="17" spans="2:44" ht="15" customHeight="1">
       <c r="C17" s="5"/>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="51" t="s">
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="88" t="s">
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="O17" s="51" t="s">
+      <c r="O17" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="51" t="s">
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="88" t="s">
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="Z17" s="88" t="s">
+      <c r="Z17" s="78" t="s">
         <v>1</v>
       </c>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="13"/>
-      <c r="AD17" s="88" t="s">
+      <c r="AD17" s="78" t="s">
         <v>2</v>
       </c>
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
       <c r="AG17" s="13"/>
       <c r="AH17" s="13"/>
-      <c r="AI17" s="88" t="s">
+      <c r="AI17" s="78" t="s">
         <v>2</v>
       </c>
       <c r="AJ17" s="17"/>
@@ -2473,38 +2760,38 @@
     </row>
     <row r="18" spans="2:44" ht="15" customHeight="1">
       <c r="C18" s="5"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="79"/>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
       <c r="AC18" s="14"/>
-      <c r="AD18" s="89"/>
+      <c r="AD18" s="79"/>
       <c r="AE18" s="14"/>
       <c r="AF18" s="14"/>
       <c r="AG18" s="14"/>
       <c r="AH18" s="14"/>
-      <c r="AI18" s="89"/>
+      <c r="AI18" s="79"/>
       <c r="AJ18" s="19"/>
       <c r="AK18" s="19"/>
       <c r="AL18" s="19"/>
@@ -2526,12 +2813,12 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
-      <c r="O19" s="82" t="s">
+      <c r="O19" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="84"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="74"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
@@ -2539,19 +2826,19 @@
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
-      <c r="Z19" s="82" t="s">
+      <c r="Z19" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AA19" s="83"/>
-      <c r="AB19" s="83"/>
-      <c r="AC19" s="84"/>
+      <c r="AA19" s="73"/>
+      <c r="AB19" s="73"/>
+      <c r="AC19" s="74"/>
       <c r="AD19" s="13"/>
-      <c r="AE19" s="82" t="s">
+      <c r="AE19" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AF19" s="83"/>
-      <c r="AG19" s="83"/>
-      <c r="AH19" s="84"/>
+      <c r="AF19" s="73"/>
+      <c r="AG19" s="73"/>
+      <c r="AH19" s="74"/>
       <c r="AI19" s="15"/>
       <c r="AJ19" s="21"/>
       <c r="AK19" s="21"/>
@@ -2574,10 +2861,10 @@
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="87"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="77"/>
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
@@ -2585,15 +2872,15 @@
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
-      <c r="Z20" s="85"/>
-      <c r="AA20" s="86"/>
-      <c r="AB20" s="86"/>
-      <c r="AC20" s="87"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="76"/>
+      <c r="AC20" s="77"/>
       <c r="AD20" s="14"/>
-      <c r="AE20" s="85"/>
-      <c r="AF20" s="86"/>
-      <c r="AG20" s="86"/>
-      <c r="AH20" s="87"/>
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="76"/>
+      <c r="AG20" s="76"/>
+      <c r="AH20" s="77"/>
       <c r="AI20" s="16"/>
       <c r="AJ20" s="23"/>
       <c r="AK20" s="23"/>
@@ -2605,48 +2892,48 @@
       <c r="AQ20" s="20"/>
     </row>
     <row r="24" spans="2:44">
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="54"/>
+    </row>
+    <row r="27" spans="2:44">
+      <c r="C27" s="54">
+        <v>0</v>
+      </c>
+      <c r="D27" s="54"/>
+      <c r="H27" s="54">
+        <v>5</v>
+      </c>
+      <c r="I27" s="54"/>
+      <c r="M27" s="54">
+        <v>10</v>
+      </c>
+      <c r="N27" s="54"/>
+      <c r="R27" s="54">
+        <v>15</v>
+      </c>
+      <c r="S27" s="54"/>
+      <c r="W27" s="54">
         <v>20</v>
       </c>
-      <c r="C24" s="57"/>
-    </row>
-    <row r="27" spans="2:44">
-      <c r="C27" s="57">
-        <v>0</v>
-      </c>
-      <c r="D27" s="57"/>
-      <c r="H27" s="57">
-        <v>5</v>
-      </c>
-      <c r="I27" s="57"/>
-      <c r="M27" s="57">
-        <v>10</v>
-      </c>
-      <c r="N27" s="57"/>
-      <c r="R27" s="57">
-        <v>15</v>
-      </c>
-      <c r="S27" s="57"/>
-      <c r="W27" s="57">
-        <v>20</v>
-      </c>
-      <c r="X27" s="57"/>
-      <c r="AB27" s="57">
+      <c r="X27" s="54"/>
+      <c r="AB27" s="54">
         <v>25</v>
       </c>
-      <c r="AC27" s="57"/>
-      <c r="AG27" s="57">
+      <c r="AC27" s="54"/>
+      <c r="AG27" s="54">
         <v>30</v>
       </c>
-      <c r="AH27" s="57"/>
-      <c r="AL27" s="57">
+      <c r="AH27" s="54"/>
+      <c r="AL27" s="54">
         <v>35</v>
       </c>
-      <c r="AM27" s="57"/>
-      <c r="AQ27" s="57">
+      <c r="AM27" s="54"/>
+      <c r="AQ27" s="54">
         <v>40</v>
       </c>
-      <c r="AR27" s="57"/>
+      <c r="AR27" s="54"/>
     </row>
     <row r="28" spans="2:44">
       <c r="C28" s="11"/>
@@ -2693,79 +2980,79 @@
     </row>
     <row r="29" spans="2:44" ht="15" customHeight="1">
       <c r="C29" s="5"/>
-      <c r="D29" s="88" t="s">
+      <c r="D29" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="E29" s="88" t="s">
+      <c r="E29" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="88" t="s">
+      <c r="F29" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="G29" s="88" t="s">
+      <c r="G29" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="88" t="s">
+      <c r="H29" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="88" t="s">
+      <c r="I29" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="J29" s="88" t="s">
+      <c r="J29" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="K29" s="88" t="s">
+      <c r="K29" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="L29" s="88" t="s">
+      <c r="L29" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="M29" s="88" t="s">
+      <c r="M29" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="N29" s="88" t="s">
+      <c r="N29" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="O29" s="88" t="s">
+      <c r="O29" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="P29" s="88" t="s">
+      <c r="P29" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="Q29" s="88" t="s">
+      <c r="Q29" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="R29" s="88" t="s">
+      <c r="R29" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="S29" s="88" t="s">
+      <c r="S29" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="T29" s="88" t="s">
+      <c r="T29" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="U29" s="88" t="s">
+      <c r="U29" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="V29" s="88" t="s">
+      <c r="V29" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="W29" s="88" t="s">
+      <c r="W29" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="X29" s="88" t="s">
+      <c r="X29" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="Y29" s="88" t="s">
+      <c r="Y29" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="Z29" s="88" t="s">
+      <c r="Z29" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="AA29" s="88" t="s">
+      <c r="AA29" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="AB29" s="88" t="s">
+      <c r="AB29" s="78" t="s">
         <v>1</v>
       </c>
       <c r="AC29" s="17"/>
@@ -2786,31 +3073,31 @@
     </row>
     <row r="30" spans="2:44" ht="15" customHeight="1">
       <c r="C30" s="5"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="89"/>
-      <c r="T30" s="89"/>
-      <c r="U30" s="89"/>
-      <c r="V30" s="89"/>
-      <c r="W30" s="89"/>
-      <c r="X30" s="89"/>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="89"/>
-      <c r="AA30" s="89"/>
-      <c r="AB30" s="89"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="79"/>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="79"/>
       <c r="AC30" s="22"/>
       <c r="AD30" s="24"/>
       <c r="AE30" s="22"/>
@@ -2831,30 +3118,30 @@
       <c r="D31" s="15"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="82" t="s">
+      <c r="G31" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="84"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="74"/>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
-      <c r="N31" s="82" t="s">
+      <c r="N31" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="O31" s="83"/>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="84"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="74"/>
       <c r="R31" s="7"/>
       <c r="S31" s="13"/>
       <c r="T31" s="13"/>
-      <c r="U31" s="82" t="s">
+      <c r="U31" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="V31" s="83"/>
-      <c r="W31" s="83"/>
-      <c r="X31" s="84"/>
+      <c r="V31" s="73"/>
+      <c r="W31" s="73"/>
+      <c r="X31" s="74"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
@@ -2879,24 +3166,24 @@
       <c r="D32" s="16"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="87"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="77"/>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="87"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="77"/>
       <c r="R32" s="8"/>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
-      <c r="U32" s="85"/>
-      <c r="V32" s="86"/>
-      <c r="W32" s="86"/>
-      <c r="X32" s="87"/>
+      <c r="U32" s="75"/>
+      <c r="V32" s="76"/>
+      <c r="W32" s="76"/>
+      <c r="X32" s="77"/>
       <c r="Y32" s="14"/>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
@@ -2918,724 +3205,659 @@
       <c r="AQ32" s="20"/>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="33"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="33"/>
-      <c r="W45" s="33"/>
-      <c r="X45" s="33"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="27"/>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="33"/>
+      <c r="A46" s="27"/>
       <c r="B46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="A47" s="27"/>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48" s="27"/>
+    </row>
+    <row r="49" spans="1:24">
+      <c r="A49" s="27"/>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50" s="27"/>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51" s="27"/>
+      <c r="B51" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" s="90"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="90"/>
+    </row>
+    <row r="52" spans="1:24">
+      <c r="A52" s="27"/>
+      <c r="B52" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="80">
+        <v>0</v>
+      </c>
+      <c r="G52" s="80"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52" s="81"/>
+      <c r="L52" s="81"/>
+      <c r="M52" s="81"/>
+    </row>
+    <row r="53" spans="1:24">
+      <c r="A53" s="27"/>
+      <c r="B53" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80">
+        <v>0</v>
+      </c>
+      <c r="G53" s="80"/>
+      <c r="H53" s="80"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" s="81"/>
+      <c r="L53" s="81"/>
+      <c r="M53" s="81"/>
+    </row>
+    <row r="54" spans="1:24">
+      <c r="A54" s="27"/>
+      <c r="B54" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80">
+        <v>0</v>
+      </c>
+      <c r="G54" s="80"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" s="81"/>
+      <c r="L54" s="81"/>
+      <c r="M54" s="81"/>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55" s="27"/>
+      <c r="U55" s="27"/>
+      <c r="V55" s="27"/>
+      <c r="W55" s="27"/>
+      <c r="X55" s="27"/>
+    </row>
+    <row r="56" spans="1:24">
+      <c r="E56" s="28"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="T56" s="27"/>
+      <c r="U56" s="27"/>
+      <c r="V56" s="27"/>
+      <c r="W56" s="27"/>
+      <c r="X56" s="27"/>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="27"/>
+      <c r="U57" s="27"/>
+      <c r="V57" s="27"/>
+      <c r="W57" s="27"/>
+      <c r="X57" s="27"/>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="82">
+        <v>0</v>
+      </c>
+      <c r="D58" s="82"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="28">
+        <v>5</v>
+      </c>
+      <c r="I58" s="28"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="82">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:24">
-      <c r="A47" s="33"/>
-    </row>
-    <row r="48" spans="1:24">
-      <c r="A48" s="33"/>
-    </row>
-    <row r="49" spans="1:24">
-      <c r="A49" s="33"/>
-    </row>
-    <row r="50" spans="1:24">
-      <c r="A50" s="33"/>
-    </row>
-    <row r="51" spans="1:24">
-      <c r="A51" s="33"/>
-      <c r="B51" s="94" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" s="94"/>
-      <c r="H51" s="94"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="K51" s="94"/>
-      <c r="L51" s="94"/>
-      <c r="M51" s="94"/>
-    </row>
-    <row r="52" spans="1:24">
-      <c r="A52" s="33"/>
-      <c r="B52" s="95" t="s">
+      <c r="N58" s="82"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="82">
+        <v>15</v>
+      </c>
+      <c r="S58" s="82"/>
+      <c r="T58" s="27"/>
+      <c r="U58" s="27"/>
+      <c r="V58" s="27"/>
+      <c r="W58" s="27"/>
+      <c r="X58" s="27"/>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="27"/>
+      <c r="U59" s="27"/>
+      <c r="V59" s="27"/>
+      <c r="W59" s="27"/>
+      <c r="X59" s="27"/>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="95"/>
-      <c r="D52" s="95"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95">
+      <c r="E60" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" s="65"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="I60" s="66"/>
+      <c r="J60" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="G52" s="95"/>
-      <c r="H52" s="95"/>
-      <c r="I52" s="95"/>
-      <c r="J52" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="K52" s="90"/>
-      <c r="L52" s="90"/>
-      <c r="M52" s="90"/>
-    </row>
-    <row r="53" spans="1:24">
-      <c r="A53" s="33"/>
-      <c r="B53" s="95" t="s">
+      <c r="K60" s="66"/>
+      <c r="L60" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="95"/>
-      <c r="D53" s="95"/>
-      <c r="E53" s="95"/>
-      <c r="F53" s="95">
+      <c r="M60" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="N60" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="G53" s="95"/>
-      <c r="H53" s="95"/>
-      <c r="I53" s="95"/>
-      <c r="J53" s="90" t="s">
+      <c r="O60" s="45"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="27"/>
+      <c r="U60" s="27"/>
+      <c r="V60" s="27"/>
+      <c r="W60" s="27"/>
+      <c r="X60" s="27"/>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="69"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="71"/>
+      <c r="M61" s="71"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="27"/>
+      <c r="U61" s="27"/>
+      <c r="V61" s="27"/>
+      <c r="W61" s="27"/>
+      <c r="X61" s="27"/>
+    </row>
+    <row r="62" spans="1:24">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="85"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="I62" s="88"/>
+      <c r="J62" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="K62" s="88"/>
+      <c r="L62" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="M62" s="88"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="47"/>
+      <c r="P62" s="42"/>
+      <c r="Q62" s="42"/>
+      <c r="R62" s="42"/>
+      <c r="S62" s="43"/>
+      <c r="T62" s="27"/>
+      <c r="U62" s="27"/>
+      <c r="V62" s="27"/>
+      <c r="W62" s="27"/>
+      <c r="X62" s="27"/>
+    </row>
+    <row r="63" spans="1:24">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="87"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="86"/>
+      <c r="I63" s="89"/>
+      <c r="J63" s="86"/>
+      <c r="K63" s="89"/>
+      <c r="L63" s="86"/>
+      <c r="M63" s="89"/>
+      <c r="N63" s="34"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="27"/>
+      <c r="U63" s="27"/>
+      <c r="V63" s="27"/>
+      <c r="W63" s="27"/>
+      <c r="X63" s="27"/>
+    </row>
+    <row r="64" spans="1:24">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="27"/>
+      <c r="R64" s="27"/>
+      <c r="S64" s="27"/>
+      <c r="T64" s="27"/>
+      <c r="U64" s="27"/>
+      <c r="V64" s="27"/>
+      <c r="W64" s="27"/>
+      <c r="X64" s="27"/>
+    </row>
+    <row r="65" spans="1:24">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="27"/>
+      <c r="T65" s="27"/>
+      <c r="U65" s="27"/>
+      <c r="V65" s="27"/>
+      <c r="W65" s="27"/>
+      <c r="X65" s="27"/>
+    </row>
+    <row r="66" spans="1:24">
+      <c r="A66" s="27"/>
+      <c r="B66" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="K53" s="90"/>
-      <c r="L53" s="90"/>
-      <c r="M53" s="90"/>
-    </row>
-    <row r="54" spans="1:24">
-      <c r="A54" s="33"/>
-      <c r="B54" s="95" t="s">
+      <c r="C66" s="82"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="82"/>
+      <c r="H66" s="82"/>
+      <c r="I66" s="82"/>
+      <c r="J66" s="82"/>
+      <c r="K66" s="82"/>
+      <c r="L66" s="82"/>
+      <c r="M66" s="82"/>
+      <c r="N66" s="82"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="27"/>
+      <c r="T66" s="27"/>
+      <c r="U66" s="27"/>
+      <c r="V66" s="27"/>
+      <c r="W66" s="27"/>
+      <c r="X66" s="27"/>
+    </row>
+    <row r="67" spans="1:24">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="27"/>
+      <c r="Q67" s="27"/>
+      <c r="R67" s="27"/>
+      <c r="S67" s="27"/>
+      <c r="T67" s="27"/>
+      <c r="U67" s="27"/>
+      <c r="V67" s="27"/>
+      <c r="W67" s="27"/>
+      <c r="X67" s="27"/>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="B68" s="27"/>
+      <c r="C68" s="82">
+        <v>0</v>
+      </c>
+      <c r="D68" s="82"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="82">
+        <v>5</v>
+      </c>
+      <c r="I68" s="82"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="82">
+        <v>10</v>
+      </c>
+      <c r="N68" s="82"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="27"/>
+      <c r="R68" s="82">
+        <v>15</v>
+      </c>
+      <c r="S68" s="82"/>
+      <c r="T68" s="27"/>
+    </row>
+    <row r="69" spans="1:24">
+      <c r="B69" s="27"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="29"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="27"/>
+    </row>
+    <row r="70" spans="1:24">
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="95"/>
-      <c r="D54" s="95"/>
-      <c r="E54" s="95"/>
-      <c r="F54" s="95">
+      <c r="G70" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="I70" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="G54" s="95"/>
-      <c r="H54" s="95"/>
-      <c r="I54" s="95"/>
-      <c r="J54" s="90" t="s">
-        <v>27</v>
-      </c>
-      <c r="K54" s="90"/>
-      <c r="L54" s="90"/>
-      <c r="M54" s="90"/>
-    </row>
-    <row r="55" spans="1:24">
-      <c r="A55" s="33"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="33"/>
-      <c r="W55" s="33"/>
-      <c r="X55" s="33"/>
-    </row>
-    <row r="56" spans="1:24">
-      <c r="E56" s="34"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
-      <c r="T56" s="33"/>
-      <c r="U56" s="33"/>
-      <c r="V56" s="33"/>
-      <c r="W56" s="33"/>
-      <c r="X56" s="33"/>
-    </row>
-    <row r="57" spans="1:24">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="33"/>
-      <c r="U57" s="33"/>
-      <c r="V57" s="33"/>
-      <c r="W57" s="33"/>
-      <c r="X57" s="33"/>
-    </row>
-    <row r="58" spans="1:24">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="66">
+      <c r="J70" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="K70" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D58" s="66"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="34">
-        <v>5</v>
-      </c>
-      <c r="I58" s="34"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="66">
-        <v>10</v>
-      </c>
-      <c r="N58" s="66"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="66">
-        <v>15</v>
-      </c>
-      <c r="S58" s="66"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="33"/>
-      <c r="V58" s="33"/>
-      <c r="W58" s="33"/>
-      <c r="X58" s="33"/>
-    </row>
-    <row r="59" spans="1:24">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="33"/>
-      <c r="V59" s="33"/>
-      <c r="W59" s="33"/>
-      <c r="X59" s="33"/>
-    </row>
-    <row r="60" spans="1:24">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="67" t="s">
+      <c r="L70" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="M70" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="N70" s="35"/>
+      <c r="O70" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="E60" s="78" t="s">
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="36"/>
+      <c r="T70" s="27"/>
+    </row>
+    <row r="71" spans="1:24">
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="83"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="83"/>
+      <c r="I71" s="71"/>
+      <c r="J71" s="71"/>
+      <c r="K71" s="71"/>
+      <c r="L71" s="71"/>
+      <c r="M71" s="71"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="83"/>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="37"/>
+      <c r="R71" s="37"/>
+      <c r="S71" s="38"/>
+      <c r="T71" s="27"/>
+    </row>
+    <row r="72" spans="1:24">
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="85"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="J72" s="88"/>
+      <c r="K72" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="F60" s="96"/>
-      <c r="G60" s="79"/>
-      <c r="H60" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="I60" s="79"/>
-      <c r="J60" s="78" t="s">
+      <c r="L72" s="85"/>
+      <c r="M72" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="K60" s="79"/>
-      <c r="L60" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="M60" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="N60" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="O60" s="98"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="42"/>
-      <c r="T60" s="33"/>
-      <c r="U60" s="33"/>
-      <c r="V60" s="33"/>
-      <c r="W60" s="33"/>
-      <c r="X60" s="33"/>
-    </row>
-    <row r="61" spans="1:24">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="97"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="80"/>
-      <c r="K61" s="81"/>
-      <c r="L61" s="77"/>
-      <c r="M61" s="77"/>
-      <c r="N61" s="77"/>
-      <c r="O61" s="99"/>
-      <c r="P61" s="43"/>
-      <c r="Q61" s="43"/>
-      <c r="R61" s="43"/>
-      <c r="S61" s="44"/>
-      <c r="T61" s="33"/>
-      <c r="U61" s="33"/>
-      <c r="V61" s="33"/>
-      <c r="W61" s="33"/>
-      <c r="X61" s="33"/>
-    </row>
-    <row r="62" spans="1:24">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="F62" s="70"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="I62" s="73"/>
-      <c r="J62" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="K62" s="73"/>
-      <c r="L62" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="M62" s="73"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="100"/>
-      <c r="P62" s="48"/>
-      <c r="Q62" s="48"/>
-      <c r="R62" s="48"/>
-      <c r="S62" s="49"/>
-      <c r="T62" s="33"/>
-      <c r="U62" s="33"/>
-      <c r="V62" s="33"/>
-      <c r="W62" s="33"/>
-      <c r="X62" s="33"/>
-    </row>
-    <row r="63" spans="1:24">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="91"/>
-      <c r="F63" s="92"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="91"/>
-      <c r="I63" s="93"/>
-      <c r="J63" s="91"/>
-      <c r="K63" s="93"/>
-      <c r="L63" s="91"/>
-      <c r="M63" s="93"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="38"/>
-      <c r="P63" s="38"/>
-      <c r="Q63" s="38"/>
-      <c r="R63" s="38"/>
-      <c r="S63" s="45"/>
-      <c r="T63" s="33"/>
-      <c r="U63" s="33"/>
-      <c r="V63" s="33"/>
-      <c r="W63" s="33"/>
-      <c r="X63" s="33"/>
-    </row>
-    <row r="64" spans="1:24">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="33"/>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="33"/>
-      <c r="S64" s="33"/>
-      <c r="T64" s="33"/>
-      <c r="U64" s="33"/>
-      <c r="V64" s="33"/>
-      <c r="W64" s="33"/>
-      <c r="X64" s="33"/>
-    </row>
-    <row r="65" spans="1:24">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="33"/>
-      <c r="N65" s="33"/>
-      <c r="O65" s="33"/>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="33"/>
-      <c r="S65" s="33"/>
-      <c r="T65" s="33"/>
-      <c r="U65" s="33"/>
-      <c r="V65" s="33"/>
-      <c r="W65" s="33"/>
-      <c r="X65" s="33"/>
-    </row>
-    <row r="66" spans="1:24">
-      <c r="A66" s="33"/>
-      <c r="B66" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="66"/>
-      <c r="I66" s="66"/>
-      <c r="J66" s="66"/>
-      <c r="K66" s="66"/>
-      <c r="L66" s="66"/>
-      <c r="M66" s="66"/>
-      <c r="N66" s="66"/>
-      <c r="O66" s="33"/>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="33"/>
-      <c r="R66" s="33"/>
-      <c r="S66" s="33"/>
-      <c r="T66" s="33"/>
-      <c r="U66" s="33"/>
-      <c r="V66" s="33"/>
-      <c r="W66" s="33"/>
-      <c r="X66" s="33"/>
-    </row>
-    <row r="67" spans="1:24">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="33"/>
-      <c r="N67" s="33"/>
-      <c r="O67" s="33"/>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="33"/>
-      <c r="R67" s="33"/>
-      <c r="S67" s="33"/>
-      <c r="T67" s="33"/>
-      <c r="U67" s="33"/>
-      <c r="V67" s="33"/>
-      <c r="W67" s="33"/>
-      <c r="X67" s="33"/>
-    </row>
-    <row r="68" spans="1:24">
-      <c r="B68" s="33"/>
-      <c r="C68" s="66">
-        <v>0</v>
-      </c>
-      <c r="D68" s="66"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="66">
-        <v>5</v>
-      </c>
-      <c r="I68" s="66"/>
-      <c r="J68" s="33"/>
-      <c r="K68" s="33"/>
-      <c r="L68" s="33"/>
-      <c r="M68" s="66">
-        <v>10</v>
-      </c>
-      <c r="N68" s="66"/>
-      <c r="O68" s="33"/>
-      <c r="P68" s="33"/>
-      <c r="Q68" s="33"/>
-      <c r="R68" s="66">
-        <v>15</v>
-      </c>
-      <c r="S68" s="66"/>
-      <c r="T68" s="33"/>
-    </row>
-    <row r="69" spans="1:24">
-      <c r="B69" s="33"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-      <c r="S69" s="35"/>
-      <c r="T69" s="33"/>
-    </row>
-    <row r="70" spans="1:24">
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="E70" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="F70" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="G70" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="H70" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="I70" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="J70" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="K70" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="L70" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="M70" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="N70" s="41"/>
-      <c r="O70" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="P70" s="41"/>
-      <c r="Q70" s="41"/>
-      <c r="R70" s="41"/>
-      <c r="S70" s="42"/>
-      <c r="T70" s="33"/>
-    </row>
-    <row r="71" spans="1:24">
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="68"/>
-      <c r="H71" s="68"/>
-      <c r="I71" s="77"/>
-      <c r="J71" s="77"/>
-      <c r="K71" s="77"/>
-      <c r="L71" s="77"/>
-      <c r="M71" s="77"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="68"/>
-      <c r="P71" s="43"/>
-      <c r="Q71" s="43"/>
-      <c r="R71" s="43"/>
-      <c r="S71" s="44"/>
-      <c r="T71" s="33"/>
-    </row>
-    <row r="72" spans="1:24">
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="F72" s="70"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33"/>
-      <c r="I72" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="J72" s="73"/>
-      <c r="K72" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="L72" s="70"/>
-      <c r="M72" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="N72" s="70"/>
-      <c r="O72" s="33"/>
-      <c r="P72" s="33"/>
-      <c r="Q72" s="33"/>
-      <c r="R72" s="33"/>
-      <c r="S72" s="35"/>
-      <c r="T72" s="33"/>
+      <c r="N72" s="85"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="27"/>
+      <c r="Q72" s="27"/>
+      <c r="R72" s="27"/>
+      <c r="S72" s="29"/>
+      <c r="T72" s="27"/>
     </row>
     <row r="73" spans="1:24">
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="71"/>
-      <c r="J73" s="74"/>
-      <c r="K73" s="71"/>
-      <c r="L73" s="72"/>
-      <c r="M73" s="76"/>
-      <c r="N73" s="72"/>
-      <c r="O73" s="38"/>
-      <c r="P73" s="38"/>
-      <c r="Q73" s="38"/>
-      <c r="R73" s="38"/>
-      <c r="S73" s="45"/>
-      <c r="T73" s="33"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="91"/>
+      <c r="F73" s="92"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="91"/>
+      <c r="J73" s="93"/>
+      <c r="K73" s="91"/>
+      <c r="L73" s="92"/>
+      <c r="M73" s="95"/>
+      <c r="N73" s="92"/>
+      <c r="O73" s="32"/>
+      <c r="P73" s="32"/>
+      <c r="Q73" s="32"/>
+      <c r="R73" s="32"/>
+      <c r="S73" s="39"/>
+      <c r="T73" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="E60:G61"/>
-    <mergeCell ref="H60:I61"/>
-    <mergeCell ref="J60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="U31:X32"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AL27:AM27"/>
-    <mergeCell ref="AQ27:AR27"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="AI17:AI18"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="T17:X18"/>
-    <mergeCell ref="Z19:AC20"/>
-    <mergeCell ref="AE19:AH20"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="D6:M7"/>
-    <mergeCell ref="N6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AL15:AM15"/>
-    <mergeCell ref="AQ15:AR15"/>
-    <mergeCell ref="AE8:AH9"/>
-    <mergeCell ref="AJ8:AM9"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="Z8:AC9"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="G31:J32"/>
-    <mergeCell ref="N31:Q32"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="B66:N66"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="E72:F73"/>
+    <mergeCell ref="I72:J73"/>
+    <mergeCell ref="K72:L73"/>
+    <mergeCell ref="M72:N73"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="M70:M71"/>
     <mergeCell ref="H68:I68"/>
     <mergeCell ref="M68:N68"/>
     <mergeCell ref="R68:S68"/>
@@ -3655,30 +3877,95 @@
     <mergeCell ref="B51:E51"/>
     <mergeCell ref="F51:I51"/>
     <mergeCell ref="J51:M51"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="D6:M7"/>
+    <mergeCell ref="N6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AL15:AM15"/>
+    <mergeCell ref="AQ15:AR15"/>
+    <mergeCell ref="AE8:AH9"/>
+    <mergeCell ref="AJ8:AM9"/>
+    <mergeCell ref="Z8:AC9"/>
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="O70:O71"/>
-    <mergeCell ref="E72:F73"/>
-    <mergeCell ref="I72:J73"/>
-    <mergeCell ref="K72:L73"/>
-    <mergeCell ref="M72:N73"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="B66:N66"/>
-    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="AI17:AI18"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="T17:X18"/>
+    <mergeCell ref="Z19:AC20"/>
+    <mergeCell ref="AE19:AH20"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AQ27:AR27"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AL27:AM27"/>
+    <mergeCell ref="E60:G61"/>
+    <mergeCell ref="H60:I61"/>
+    <mergeCell ref="J60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="U31:X32"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="G31:J32"/>
+    <mergeCell ref="N31:Q32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3686,6 +3973,664 @@
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="45" max="16383" man="1"/>
   </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="44" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="55"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="96">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="96">
+        <v>1</v>
+      </c>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="96" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="96">
+        <v>2</v>
+      </c>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="96" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="96">
+        <v>3</v>
+      </c>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="96"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="96">
+        <v>4</v>
+      </c>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="96"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="96">
+        <v>5</v>
+      </c>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="96" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="96">
+        <v>6</v>
+      </c>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="96"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="96">
+        <v>7</v>
+      </c>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="96"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="96">
+        <v>8</v>
+      </c>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="96"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="96">
+        <v>9</v>
+      </c>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="96"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="96">
+        <v>10</v>
+      </c>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="96" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="96">
+        <v>11</v>
+      </c>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="96"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="96">
+        <v>12</v>
+      </c>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="96"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="96">
+        <v>13</v>
+      </c>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="96" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="96">
+        <v>14</v>
+      </c>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="96"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="96">
+        <v>15</v>
+      </c>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="96" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="96">
+        <v>16</v>
+      </c>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="96" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="96">
+        <v>17</v>
+      </c>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="96"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="96">
+        <v>18</v>
+      </c>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="96"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="96">
+        <v>19</v>
+      </c>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="96"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="96">
+        <v>20</v>
+      </c>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="96"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="C5" s="54">
+        <v>0</v>
+      </c>
+      <c r="D5" s="54"/>
+      <c r="H5" s="54">
+        <v>5</v>
+      </c>
+      <c r="I5" s="54"/>
+      <c r="M5" s="54">
+        <v>10</v>
+      </c>
+      <c r="N5" s="54"/>
+      <c r="R5" s="54">
+        <v>15</v>
+      </c>
+      <c r="S5" s="54"/>
+      <c r="W5" s="54">
+        <v>20</v>
+      </c>
+      <c r="X5" s="54"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="99"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="97"/>
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="7" spans="1:29" ht="15" customHeight="1">
+      <c r="A7" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="60"/>
+      <c r="I7" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="59"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="98"/>
+    </row>
+    <row r="8" spans="1:29" ht="15" customHeight="1">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="98"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="60"/>
+      <c r="J9" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="18"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="20"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:L8"/>
+    <mergeCell ref="M7:O8"/>
+    <mergeCell ref="E9:G10"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="J9:N10"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="P7:R8"/>
+    <mergeCell ref="S7:V8"/>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
